--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906009927933799</v>
+        <v>0.9906009927933784</v>
       </c>
       <c r="D2">
-        <v>1.010723216314787</v>
+        <v>1.010723216314786</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.008022716541734</v>
+        <v>1.008022716541733</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,10 +439,10 @@
         <v>1.042365750758324</v>
       </c>
       <c r="J2">
-        <v>1.013066507434535</v>
+        <v>1.013066507434534</v>
       </c>
       <c r="K2">
-        <v>1.02203515410599</v>
+        <v>1.022035154105989</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9996009463331786</v>
+        <v>0.9996009463331799</v>
       </c>
       <c r="D3">
-        <v>1.017553896156861</v>
+        <v>1.017553896156862</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016275172898167</v>
+        <v>1.016275172898168</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045561089212245</v>
+        <v>1.045561089212246</v>
       </c>
       <c r="J3">
-        <v>1.020102495868643</v>
+        <v>1.020102495868644</v>
       </c>
       <c r="K3">
-        <v>1.027966992264832</v>
+        <v>1.027966992264833</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.026703960313099</v>
+        <v>1.0267039603131</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005207958268692</v>
+        <v>1.005207958268693</v>
       </c>
       <c r="D4">
-        <v>1.021810830799995</v>
+        <v>1.021810830799996</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.021424757970562</v>
+        <v>1.021424757970563</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.031271302871439</v>
+        <v>1.03127130287144</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>1.007516841533823</v>
       </c>
       <c r="D5">
-        <v>1.023563949619648</v>
+        <v>1.023563949619647</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.023547121455193</v>
+        <v>1.023547121455192</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.03316837414397</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.033151732925548</v>
+        <v>1.033151732925547</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,7 +579,7 @@
         <v>1.023856234151098</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
         <v>1.023901064492674</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048478107802544</v>
+        <v>1.048478107802545</v>
       </c>
       <c r="J6">
         <v>1.02658015942354</v>
       </c>
       <c r="K6">
-        <v>1.03342087874475</v>
+        <v>1.033420878744751</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
         <v>1.033465213579494</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005238995086438</v>
+        <v>1.005238995086439</v>
       </c>
       <c r="D7">
-        <v>1.021834396332286</v>
+        <v>1.021834396332287</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.021453280400761</v>
@@ -629,16 +629,16 @@
         <v>1.047545781489774</v>
       </c>
       <c r="J7">
-        <v>1.024503587660075</v>
+        <v>1.024503587660076</v>
       </c>
       <c r="K7">
-        <v>1.03167333688152</v>
+        <v>1.031673336881521</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.031296581745939</v>
+        <v>1.03129658174594</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936896668942513</v>
+        <v>0.9936896668942512</v>
       </c>
       <c r="D8">
         <v>1.013067025655913</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
         <v>1.0108530119732</v>
@@ -667,7 +667,7 @@
         <v>1.043465884456103</v>
       </c>
       <c r="J8">
-        <v>1.015482515604306</v>
+        <v>1.015482515604305</v>
       </c>
       <c r="K8">
         <v>1.02407285773373</v>
@@ -687,22 +687,22 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971496874277694</v>
+        <v>0.9714968742776943</v>
       </c>
       <c r="D9">
-        <v>0.9962399228366843</v>
+        <v>0.9962399228366841</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9905600216731141</v>
+        <v>0.9905600216731142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03549082702777</v>
+        <v>1.035490827027771</v>
       </c>
       <c r="J9">
         <v>0.9980979194623556</v>
@@ -711,7 +711,7 @@
         <v>1.009394300677114</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
         <v>1.003808135492725</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9551615593210435</v>
+        <v>0.9551615593210421</v>
       </c>
       <c r="D10">
-        <v>0.9838819257322872</v>
+        <v>0.9838819257322859</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9756885473060338</v>
+        <v>0.9756885473060323</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029534776500384</v>
+        <v>1.029534776500383</v>
       </c>
       <c r="J10">
-        <v>0.9852744740375848</v>
+        <v>0.9852744740375833</v>
       </c>
       <c r="K10">
-        <v>0.9985484255684456</v>
+        <v>0.9985484255684441</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9905110786680309</v>
+        <v>0.9905110786680296</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9476378972779537</v>
+        <v>0.9476378972779559</v>
       </c>
       <c r="D11">
-        <v>0.9782006222164858</v>
+        <v>0.978200622216488</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9688583455252472</v>
+        <v>0.9688583455252496</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0267729966907</v>
+        <v>1.026772996690701</v>
       </c>
       <c r="J11">
-        <v>0.9793637604055617</v>
+        <v>0.9793637604055637</v>
       </c>
       <c r="K11">
-        <v>0.9935456945675792</v>
+        <v>0.9935456945675811</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9843924545352238</v>
+        <v>0.9843924545352259</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447666593931459</v>
+        <v>0.9447666593931485</v>
       </c>
       <c r="D12">
-        <v>0.976034452966387</v>
+        <v>0.9760344529663895</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9662550214410923</v>
+        <v>0.9662550214410952</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02571642708688</v>
+        <v>1.025716427086881</v>
       </c>
       <c r="J12">
-        <v>0.9771075883294258</v>
+        <v>0.977107588329428</v>
       </c>
       <c r="K12">
-        <v>0.991635662969095</v>
+        <v>0.9916356629690973</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9820585928864358</v>
+        <v>0.9820585928864384</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.945386179478567</v>
+        <v>0.9453861794785671</v>
       </c>
       <c r="D13">
-        <v>0.9765017460861508</v>
+        <v>0.9765017460861507</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9668165802603748</v>
+        <v>0.9668165802603745</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.025944514265233</v>
       </c>
       <c r="J13">
-        <v>0.9775944151739877</v>
+        <v>0.9775944151739876</v>
       </c>
       <c r="K13">
-        <v>0.9920478196422234</v>
+        <v>0.9920478196422235</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
         <v>0.9825621059124734</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9474021807660232</v>
+        <v>0.9474021807660193</v>
       </c>
       <c r="D14">
-        <v>0.9780227464520099</v>
+        <v>0.9780227464520063</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9686445550801914</v>
+        <v>0.968644555080188</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026686308113762</v>
+        <v>1.02668630811376</v>
       </c>
       <c r="J14">
-        <v>0.9791785466268657</v>
+        <v>0.979178546626862</v>
       </c>
       <c r="K14">
-        <v>0.9933889046090661</v>
+        <v>0.9933889046090627</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9842008285537436</v>
+        <v>0.9842008285537401</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9486338562401987</v>
+        <v>0.9486338562401972</v>
       </c>
       <c r="D15">
-        <v>0.9789522725530601</v>
+        <v>0.9789522725530588</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9697617964303417</v>
+        <v>0.96976179643034</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02713917277458</v>
+        <v>1.027139172774579</v>
       </c>
       <c r="J15">
-        <v>0.980146315015771</v>
+        <v>0.9801463150157693</v>
       </c>
       <c r="K15">
-        <v>0.9942081370339535</v>
+        <v>0.9942081370339526</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9852021700225753</v>
+        <v>0.9852021700225735</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9556506652547145</v>
+        <v>0.9556506652547143</v>
       </c>
       <c r="D16">
-        <v>0.9842515089709543</v>
+        <v>0.9842515089709541</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9761329975226679</v>
+        <v>0.9761329975226676</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029713951099331</v>
       </c>
       <c r="J16">
-        <v>0.9856586466359009</v>
+        <v>0.9856586466359004</v>
       </c>
       <c r="K16">
-        <v>0.9988735172344488</v>
+        <v>0.9988735172344487</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9909089867652852</v>
+        <v>0.9909089867652849</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599257403429876</v>
+        <v>0.9599257403429859</v>
       </c>
       <c r="D17">
-        <v>0.9874830985773212</v>
+        <v>0.9874830985773196</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9800199444156623</v>
+        <v>0.9800199444156602</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031277988297314</v>
+        <v>1.031277988297312</v>
       </c>
       <c r="J17">
-        <v>0.9890160557531622</v>
+        <v>0.9890160557531605</v>
       </c>
       <c r="K17">
-        <v>1.001714212470504</v>
+        <v>1.001714212470502</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9943876066876299</v>
+        <v>0.9943876066876279</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623765516563954</v>
+        <v>0.9623765516563947</v>
       </c>
       <c r="D18">
-        <v>0.9893366490069961</v>
+        <v>0.9893366490069955</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9822500119007448</v>
+        <v>0.9822500119007436</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1.03217287940666</v>
       </c>
       <c r="J18">
-        <v>0.9909403523111115</v>
+        <v>0.9909403523111109</v>
       </c>
       <c r="K18">
         <v>1.003342019867069</v>
@@ -1056,7 +1056,7 @@
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9963823325390436</v>
+        <v>0.9963823325390426</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9632052059570066</v>
+        <v>0.9632052059570082</v>
       </c>
       <c r="D19">
-        <v>0.9899635110421603</v>
+        <v>0.9899635110421617</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>0.9830043184019398</v>
+        <v>0.9830043184019415</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032475154802364</v>
+        <v>1.032475154802365</v>
       </c>
       <c r="J19">
-        <v>0.9915909051376124</v>
+        <v>0.9915909051376141</v>
       </c>
       <c r="K19">
-        <v>1.003892278537247</v>
+        <v>1.003892278537248</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9970568550981278</v>
+        <v>0.9970568550981294</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9594715482387225</v>
+        <v>0.9594715482387219</v>
       </c>
       <c r="D20">
-        <v>0.9871396671188721</v>
+        <v>0.9871396671188716</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9796068018812811</v>
+        <v>0.9796068018812806</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031112001813651</v>
       </c>
       <c r="J20">
-        <v>0.988659402320199</v>
+        <v>0.9886594023201982</v>
       </c>
       <c r="K20">
-        <v>1.001412483230955</v>
+        <v>1.001412483230954</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9940179767706016</v>
+        <v>0.994017976770601</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9468107142052313</v>
+        <v>0.9468107142052298</v>
       </c>
       <c r="D21">
-        <v>0.9775764486633961</v>
+        <v>0.9775764486633944</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9681081598974951</v>
+        <v>0.9681081598974931</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026468745696874</v>
+        <v>1.026468745696872</v>
       </c>
       <c r="J21">
-        <v>0.9787137960026754</v>
+        <v>0.9787137960026735</v>
       </c>
       <c r="K21">
-        <v>0.9929954700959384</v>
+        <v>0.9929954700959367</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981065</v>
       </c>
       <c r="M21">
-        <v>0.9837200152398902</v>
+        <v>0.9837200152398883</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9384012710307236</v>
+        <v>0.9384012710307225</v>
       </c>
       <c r="D22">
-        <v>0.9712363233125765</v>
+        <v>0.971236323312576</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9604901229011652</v>
+        <v>0.9604901229011641</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023369495992802</v>
       </c>
       <c r="J22">
-        <v>0.9721051377888356</v>
+        <v>0.9721051377888343</v>
       </c>
       <c r="K22">
-        <v>0.9873999717444923</v>
+        <v>0.9873999717444916</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>0.9768871248961816</v>
+        <v>0.9768871248961806</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9429053141836848</v>
+        <v>0.9429053141836854</v>
       </c>
       <c r="D23">
-        <v>0.9746307967026097</v>
+        <v>0.9746307967026103</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>0.9645683330401509</v>
+        <v>0.9645683330401515</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025030775812365</v>
       </c>
       <c r="J23">
-        <v>0.9756448665430715</v>
+        <v>0.9756448665430719</v>
       </c>
       <c r="K23">
-        <v>0.9903972377996783</v>
+        <v>0.9903972377996787</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9805459905518963</v>
+        <v>0.9805459905518971</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9596769096043661</v>
+        <v>0.9596769096043668</v>
       </c>
       <c r="D24">
-        <v>0.9872949455263783</v>
+        <v>0.9872949455263789</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9797935973707163</v>
+        <v>0.9797935973707165</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031187057445691</v>
+        <v>1.031187057445692</v>
       </c>
       <c r="J24">
-        <v>0.988820663289678</v>
+        <v>0.9888206632896784</v>
       </c>
       <c r="K24">
         <v>1.00154891125704</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>0.9941851020892024</v>
+        <v>0.9941851020892025</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9774806815834626</v>
+        <v>0.9774806815834618</v>
       </c>
       <c r="D25">
-        <v>1.000773408761608</v>
+        <v>1.000773408761607</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717734</v>
       </c>
       <c r="F25">
-        <v>0.9960216270253365</v>
+        <v>0.9960216270253356</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037656081626804</v>
       </c>
       <c r="J25">
-        <v>1.002790426147537</v>
+        <v>1.002790426147536</v>
       </c>
       <c r="K25">
         <v>1.013359730407844</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9598754494005612</v>
       </c>
       <c r="M25">
-        <v>1.008682017654581</v>
+        <v>1.00868201765458</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906009927933784</v>
+        <v>0.9906009927933799</v>
       </c>
       <c r="D2">
-        <v>1.010723216314786</v>
+        <v>1.010723216314787</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.008022716541733</v>
+        <v>1.008022716541734</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,10 +439,10 @@
         <v>1.042365750758324</v>
       </c>
       <c r="J2">
-        <v>1.013066507434534</v>
+        <v>1.013066507434535</v>
       </c>
       <c r="K2">
-        <v>1.022035154105989</v>
+        <v>1.02203515410599</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9996009463331799</v>
+        <v>0.9996009463331786</v>
       </c>
       <c r="D3">
-        <v>1.017553896156862</v>
+        <v>1.017553896156861</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016275172898168</v>
+        <v>1.016275172898167</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045561089212246</v>
+        <v>1.045561089212245</v>
       </c>
       <c r="J3">
-        <v>1.020102495868644</v>
+        <v>1.020102495868643</v>
       </c>
       <c r="K3">
-        <v>1.027966992264833</v>
+        <v>1.027966992264832</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.0267039603131</v>
+        <v>1.026703960313099</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005207958268693</v>
+        <v>1.005207958268692</v>
       </c>
       <c r="D4">
-        <v>1.021810830799996</v>
+        <v>1.021810830799995</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.021424757970563</v>
+        <v>1.021424757970562</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.03127130287144</v>
+        <v>1.031271302871439</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>1.007516841533823</v>
       </c>
       <c r="D5">
-        <v>1.023563949619647</v>
+        <v>1.023563949619648</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.023547121455192</v>
+        <v>1.023547121455193</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.03316837414397</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.033151732925547</v>
+        <v>1.033151732925548</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -579,7 +579,7 @@
         <v>1.023856234151098</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
         <v>1.023901064492674</v>
@@ -588,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048478107802545</v>
+        <v>1.048478107802544</v>
       </c>
       <c r="J6">
         <v>1.02658015942354</v>
       </c>
       <c r="K6">
-        <v>1.033420878744751</v>
+        <v>1.03342087874475</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
         <v>1.033465213579494</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005238995086439</v>
+        <v>1.005238995086438</v>
       </c>
       <c r="D7">
-        <v>1.021834396332287</v>
+        <v>1.021834396332286</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.021453280400761</v>
@@ -629,16 +629,16 @@
         <v>1.047545781489774</v>
       </c>
       <c r="J7">
-        <v>1.024503587660076</v>
+        <v>1.024503587660075</v>
       </c>
       <c r="K7">
-        <v>1.031673336881521</v>
+        <v>1.03167333688152</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.03129658174594</v>
+        <v>1.031296581745939</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936896668942512</v>
+        <v>0.9936896668942513</v>
       </c>
       <c r="D8">
         <v>1.013067025655913</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
         <v>1.0108530119732</v>
@@ -667,7 +667,7 @@
         <v>1.043465884456103</v>
       </c>
       <c r="J8">
-        <v>1.015482515604305</v>
+        <v>1.015482515604306</v>
       </c>
       <c r="K8">
         <v>1.02407285773373</v>
@@ -687,22 +687,22 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9714968742776943</v>
+        <v>0.971496874277694</v>
       </c>
       <c r="D9">
-        <v>0.9962399228366841</v>
+        <v>0.9962399228366843</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9905600216731142</v>
+        <v>0.9905600216731141</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035490827027771</v>
+        <v>1.03549082702777</v>
       </c>
       <c r="J9">
         <v>0.9980979194623556</v>
@@ -711,7 +711,7 @@
         <v>1.009394300677114</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
         <v>1.003808135492725</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9551615593210421</v>
+        <v>0.9551615593210435</v>
       </c>
       <c r="D10">
-        <v>0.9838819257322859</v>
+        <v>0.9838819257322872</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9756885473060323</v>
+        <v>0.9756885473060338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029534776500383</v>
+        <v>1.029534776500384</v>
       </c>
       <c r="J10">
-        <v>0.9852744740375833</v>
+        <v>0.9852744740375848</v>
       </c>
       <c r="K10">
-        <v>0.9985484255684441</v>
+        <v>0.9985484255684456</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9905110786680296</v>
+        <v>0.9905110786680309</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9476378972779559</v>
+        <v>0.9476378972779537</v>
       </c>
       <c r="D11">
-        <v>0.978200622216488</v>
+        <v>0.9782006222164858</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9688583455252496</v>
+        <v>0.9688583455252472</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026772996690701</v>
+        <v>1.0267729966907</v>
       </c>
       <c r="J11">
-        <v>0.9793637604055637</v>
+        <v>0.9793637604055617</v>
       </c>
       <c r="K11">
-        <v>0.9935456945675811</v>
+        <v>0.9935456945675792</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9843924545352259</v>
+        <v>0.9843924545352238</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447666593931485</v>
+        <v>0.9447666593931459</v>
       </c>
       <c r="D12">
-        <v>0.9760344529663895</v>
+        <v>0.976034452966387</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9662550214410952</v>
+        <v>0.9662550214410923</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025716427086881</v>
+        <v>1.02571642708688</v>
       </c>
       <c r="J12">
-        <v>0.977107588329428</v>
+        <v>0.9771075883294258</v>
       </c>
       <c r="K12">
-        <v>0.9916356629690973</v>
+        <v>0.991635662969095</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9820585928864384</v>
+        <v>0.9820585928864358</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9453861794785671</v>
+        <v>0.945386179478567</v>
       </c>
       <c r="D13">
-        <v>0.9765017460861507</v>
+        <v>0.9765017460861508</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9668165802603745</v>
+        <v>0.9668165802603748</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,13 +857,13 @@
         <v>1.025944514265233</v>
       </c>
       <c r="J13">
-        <v>0.9775944151739876</v>
+        <v>0.9775944151739877</v>
       </c>
       <c r="K13">
-        <v>0.9920478196422235</v>
+        <v>0.9920478196422234</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
         <v>0.9825621059124734</v>
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9474021807660193</v>
+        <v>0.9474021807660232</v>
       </c>
       <c r="D14">
-        <v>0.9780227464520063</v>
+        <v>0.9780227464520099</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.968644555080188</v>
+        <v>0.9686445550801914</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02668630811376</v>
+        <v>1.026686308113762</v>
       </c>
       <c r="J14">
-        <v>0.979178546626862</v>
+        <v>0.9791785466268657</v>
       </c>
       <c r="K14">
-        <v>0.9933889046090627</v>
+        <v>0.9933889046090661</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9842008285537401</v>
+        <v>0.9842008285537436</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9486338562401972</v>
+        <v>0.9486338562401987</v>
       </c>
       <c r="D15">
-        <v>0.9789522725530588</v>
+        <v>0.9789522725530601</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.96976179643034</v>
+        <v>0.9697617964303417</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027139172774579</v>
+        <v>1.02713917277458</v>
       </c>
       <c r="J15">
-        <v>0.9801463150157693</v>
+        <v>0.980146315015771</v>
       </c>
       <c r="K15">
-        <v>0.9942081370339526</v>
+        <v>0.9942081370339535</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9852021700225735</v>
+        <v>0.9852021700225753</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9556506652547143</v>
+        <v>0.9556506652547145</v>
       </c>
       <c r="D16">
-        <v>0.9842515089709541</v>
+        <v>0.9842515089709543</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9761329975226676</v>
+        <v>0.9761329975226679</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.029713951099331</v>
       </c>
       <c r="J16">
-        <v>0.9856586466359004</v>
+        <v>0.9856586466359009</v>
       </c>
       <c r="K16">
-        <v>0.9988735172344487</v>
+        <v>0.9988735172344488</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9909089867652849</v>
+        <v>0.9909089867652852</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599257403429859</v>
+        <v>0.9599257403429876</v>
       </c>
       <c r="D17">
-        <v>0.9874830985773196</v>
+        <v>0.9874830985773212</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9800199444156602</v>
+        <v>0.9800199444156623</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031277988297312</v>
+        <v>1.031277988297314</v>
       </c>
       <c r="J17">
-        <v>0.9890160557531605</v>
+        <v>0.9890160557531622</v>
       </c>
       <c r="K17">
-        <v>1.001714212470502</v>
+        <v>1.001714212470504</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9943876066876279</v>
+        <v>0.9943876066876299</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623765516563947</v>
+        <v>0.9623765516563954</v>
       </c>
       <c r="D18">
-        <v>0.9893366490069955</v>
+        <v>0.9893366490069961</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9822500119007436</v>
+        <v>0.9822500119007448</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>1.03217287940666</v>
       </c>
       <c r="J18">
-        <v>0.9909403523111109</v>
+        <v>0.9909403523111115</v>
       </c>
       <c r="K18">
         <v>1.003342019867069</v>
@@ -1056,7 +1056,7 @@
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9963823325390426</v>
+        <v>0.9963823325390436</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9632052059570082</v>
+        <v>0.9632052059570066</v>
       </c>
       <c r="D19">
-        <v>0.9899635110421617</v>
+        <v>0.9899635110421603</v>
       </c>
       <c r="E19">
-        <v>0.9397594814680089</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9830043184019415</v>
+        <v>0.9830043184019398</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032475154802365</v>
+        <v>1.032475154802364</v>
       </c>
       <c r="J19">
-        <v>0.9915909051376141</v>
+        <v>0.9915909051376124</v>
       </c>
       <c r="K19">
-        <v>1.003892278537248</v>
+        <v>1.003892278537247</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9970568550981294</v>
+        <v>0.9970568550981278</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9594715482387219</v>
+        <v>0.9594715482387225</v>
       </c>
       <c r="D20">
-        <v>0.9871396671188716</v>
+        <v>0.9871396671188721</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9796068018812806</v>
+        <v>0.9796068018812811</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031112001813651</v>
       </c>
       <c r="J20">
-        <v>0.9886594023201982</v>
+        <v>0.988659402320199</v>
       </c>
       <c r="K20">
-        <v>1.001412483230954</v>
+        <v>1.001412483230955</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.994017976770601</v>
+        <v>0.9940179767706016</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9468107142052298</v>
+        <v>0.9468107142052313</v>
       </c>
       <c r="D21">
-        <v>0.9775764486633944</v>
+        <v>0.9775764486633961</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9681081598974931</v>
+        <v>0.9681081598974951</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026468745696872</v>
+        <v>1.026468745696874</v>
       </c>
       <c r="J21">
-        <v>0.9787137960026735</v>
+        <v>0.9787137960026754</v>
       </c>
       <c r="K21">
-        <v>0.9929954700959367</v>
+        <v>0.9929954700959384</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9837200152398883</v>
+        <v>0.9837200152398902</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9384012710307225</v>
+        <v>0.9384012710307236</v>
       </c>
       <c r="D22">
-        <v>0.971236323312576</v>
+        <v>0.9712363233125765</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9604901229011641</v>
+        <v>0.9604901229011652</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.023369495992802</v>
       </c>
       <c r="J22">
-        <v>0.9721051377888343</v>
+        <v>0.9721051377888356</v>
       </c>
       <c r="K22">
-        <v>0.9873999717444916</v>
+        <v>0.9873999717444923</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9768871248961806</v>
+        <v>0.9768871248961816</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9429053141836854</v>
+        <v>0.9429053141836848</v>
       </c>
       <c r="D23">
-        <v>0.9746307967026103</v>
+        <v>0.9746307967026097</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9645683330401515</v>
+        <v>0.9645683330401509</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.025030775812365</v>
       </c>
       <c r="J23">
-        <v>0.9756448665430719</v>
+        <v>0.9756448665430715</v>
       </c>
       <c r="K23">
-        <v>0.9903972377996787</v>
+        <v>0.9903972377996783</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9805459905518971</v>
+        <v>0.9805459905518963</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9596769096043668</v>
+        <v>0.9596769096043661</v>
       </c>
       <c r="D24">
-        <v>0.9872949455263789</v>
+        <v>0.9872949455263783</v>
       </c>
       <c r="E24">
         <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9797935973707165</v>
+        <v>0.9797935973707163</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031187057445692</v>
+        <v>1.031187057445691</v>
       </c>
       <c r="J24">
-        <v>0.9888206632896784</v>
+        <v>0.988820663289678</v>
       </c>
       <c r="K24">
         <v>1.00154891125704</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442451</v>
+        <v>0.9533716596442449</v>
       </c>
       <c r="M24">
-        <v>0.9941851020892025</v>
+        <v>0.9941851020892024</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,19 +1292,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9774806815834618</v>
+        <v>0.9774806815834626</v>
       </c>
       <c r="D25">
-        <v>1.000773408761607</v>
+        <v>1.000773408761608</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717734</v>
+        <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9960216270253356</v>
+        <v>0.9960216270253365</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.037656081626804</v>
       </c>
       <c r="J25">
-        <v>1.002790426147536</v>
+        <v>1.002790426147537</v>
       </c>
       <c r="K25">
         <v>1.013359730407844</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005612</v>
+        <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>1.00868201765458</v>
+        <v>1.008682017654581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9906009927933799</v>
+        <v>0.9937915991269208</v>
       </c>
       <c r="D2">
-        <v>1.010723216314787</v>
+        <v>1.013158139009723</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.008022716541734</v>
+        <v>1.010609368483149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042365750758324</v>
+        <v>1.043672599648381</v>
       </c>
       <c r="J2">
-        <v>1.013066507434535</v>
+        <v>1.016159601443368</v>
       </c>
       <c r="K2">
-        <v>1.02203515410599</v>
+        <v>1.024437153889612</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.01937140233838</v>
+        <v>1.021922850510129</v>
+      </c>
+      <c r="N2">
+        <v>1.017602664632553</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9996009463331786</v>
+        <v>1.002762522188579</v>
       </c>
       <c r="D3">
-        <v>1.017553896156861</v>
+        <v>1.01996985171227</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016275172898167</v>
+        <v>1.018836587240584</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045561089212245</v>
+        <v>1.046859086680448</v>
       </c>
       <c r="J3">
-        <v>1.020102495868643</v>
+        <v>1.02317816031716</v>
       </c>
       <c r="K3">
-        <v>1.027966992264832</v>
+        <v>1.030353434924291</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.026703960313099</v>
+        <v>1.02923399254845</v>
+      </c>
+      <c r="N3">
+        <v>1.024631190664985</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005207958268692</v>
+        <v>1.008352875388184</v>
       </c>
       <c r="D4">
-        <v>1.021810830799995</v>
+        <v>1.02421597300009</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.021424757970562</v>
+        <v>1.023971626730784</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047534894907747</v>
+        <v>1.048827935376369</v>
       </c>
       <c r="J4">
-        <v>1.024479375668526</v>
+        <v>1.027545300573329</v>
       </c>
       <c r="K4">
-        <v>1.031652956432399</v>
+        <v>1.034030660172565</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.031271302871439</v>
+        <v>1.033789094211158</v>
+      </c>
+      <c r="N4">
+        <v>1.029004532761236</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007516841533823</v>
+        <v>1.010655208874176</v>
       </c>
       <c r="D5">
-        <v>1.023563949619648</v>
+        <v>1.025964858212568</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.023547121455193</v>
+        <v>1.026088256927013</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048343537611583</v>
+        <v>1.04963465953502</v>
       </c>
       <c r="J5">
-        <v>1.026280051972389</v>
+        <v>1.029342210562924</v>
       </c>
       <c r="K5">
-        <v>1.03316837414397</v>
+        <v>1.035542688029123</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.033151732925548</v>
+        <v>1.035664723997469</v>
+      </c>
+      <c r="N5">
+        <v>1.030803994569125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007901776492825</v>
+        <v>1.011039069242377</v>
       </c>
       <c r="D6">
-        <v>1.023856234151098</v>
+        <v>1.026256449245296</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.023901064492674</v>
+        <v>1.026441258505904</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048478107802544</v>
+        <v>1.049768916792255</v>
       </c>
       <c r="J6">
-        <v>1.02658015942354</v>
+        <v>1.029641703828389</v>
       </c>
       <c r="K6">
-        <v>1.03342087874475</v>
+        <v>1.035794639225545</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.033465213579494</v>
+        <v>1.035977417863379</v>
+      </c>
+      <c r="N6">
+        <v>1.031103913149379</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005238995086438</v>
+        <v>1.008383822972061</v>
       </c>
       <c r="D7">
-        <v>1.021834396332286</v>
+        <v>1.024239480780231</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.021453280400761</v>
+        <v>1.024000071107804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047545781489774</v>
+        <v>1.048838795695862</v>
       </c>
       <c r="J7">
-        <v>1.024503587660075</v>
+        <v>1.027569460997971</v>
       </c>
       <c r="K7">
-        <v>1.03167333688152</v>
+        <v>1.034050994251173</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.031296581745939</v>
+        <v>1.033814307635169</v>
+      </c>
+      <c r="N7">
+        <v>1.029028727496453</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936896668942513</v>
+        <v>0.9968699857819702</v>
       </c>
       <c r="D8">
-        <v>1.013067025655913</v>
+        <v>1.015495211794254</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.0108530119732</v>
+        <v>1.013430735342675</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043465884456103</v>
+        <v>1.044769569947877</v>
       </c>
       <c r="J8">
-        <v>1.015482515604306</v>
+        <v>1.018569374342966</v>
       </c>
       <c r="K8">
-        <v>1.02407285773373</v>
+        <v>1.026469302869692</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.021887952070497</v>
+        <v>1.024431800908097</v>
+      </c>
+      <c r="N8">
+        <v>1.020015859686073</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971496874277694</v>
+        <v>0.9747590844887395</v>
       </c>
       <c r="D9">
-        <v>0.9962399228366843</v>
+        <v>0.9987220504032754</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9905600216731141</v>
+        <v>0.9932084443406224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03549082702777</v>
+        <v>1.036820274382361</v>
       </c>
       <c r="J9">
-        <v>0.9980979194623556</v>
+        <v>1.001235768756514</v>
       </c>
       <c r="K9">
-        <v>1.009394300677114</v>
+        <v>1.01183589553156</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.003808135492725</v>
+        <v>1.006412679312317</v>
+      </c>
+      <c r="N9">
+        <v>1.002657638391496</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9551615593210435</v>
+        <v>0.9584969065320305</v>
       </c>
       <c r="D10">
-        <v>0.9838819257322872</v>
+        <v>0.9864126074068604</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9756885473060338</v>
+        <v>0.9783995231844573</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029534776500384</v>
+        <v>1.03088798031423</v>
       </c>
       <c r="J10">
-        <v>0.9852744740375848</v>
+        <v>0.9884597603916082</v>
       </c>
       <c r="K10">
-        <v>0.9985484255684456</v>
+        <v>1.001031597856599</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9905110786680309</v>
+        <v>0.9931700492115664</v>
+      </c>
+      <c r="N10">
+        <v>0.9898634866292837</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9476378972779537</v>
+        <v>0.9510110564663082</v>
       </c>
       <c r="D11">
-        <v>0.9782006222164858</v>
+        <v>0.9807564784941745</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9688583455252472</v>
+        <v>0.971601490426618</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0267729966907</v>
+        <v>1.028138648457504</v>
       </c>
       <c r="J11">
-        <v>0.9793637604055617</v>
+        <v>0.982574047421587</v>
       </c>
       <c r="K11">
-        <v>0.9935456945675792</v>
+        <v>0.9960506587415848</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9843924545352238</v>
+        <v>0.9870795963072192</v>
+      </c>
+      <c r="N11">
+        <v>0.9839694152717444</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9447666593931459</v>
+        <v>0.9481549888191881</v>
       </c>
       <c r="D12">
-        <v>0.976034452966387</v>
+        <v>0.9786004183538718</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9662550214410923</v>
+        <v>0.9690110438045375</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02571642708688</v>
+        <v>1.027087096769465</v>
       </c>
       <c r="J12">
-        <v>0.9771075883294258</v>
+        <v>0.9803279793504279</v>
       </c>
       <c r="K12">
-        <v>0.991635662969095</v>
+        <v>0.9941494143516489</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9820585928864358</v>
+        <v>0.9847570399095414</v>
+      </c>
+      <c r="N12">
+        <v>0.9817201575262966</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.945386179478567</v>
+        <v>0.948771200043151</v>
       </c>
       <c r="D13">
-        <v>0.9765017460861508</v>
+        <v>0.979065506150035</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9668165802603748</v>
+        <v>0.9695697951955681</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025944514265233</v>
+        <v>1.027314088418492</v>
       </c>
       <c r="J13">
-        <v>0.9775944151739877</v>
+        <v>0.9808125990207747</v>
       </c>
       <c r="K13">
-        <v>0.9920478196422234</v>
+        <v>0.9945596524233732</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9825621059124734</v>
+        <v>0.9852580869917582</v>
+      </c>
+      <c r="N13">
+        <v>0.9822054654121616</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9474021807660232</v>
+        <v>0.9507765696027202</v>
       </c>
       <c r="D14">
-        <v>0.9780227464520099</v>
+        <v>0.9805794219718612</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9686445550801914</v>
+        <v>0.9713887443777072</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026686308113762</v>
+        <v>1.028052366149531</v>
       </c>
       <c r="J14">
-        <v>0.9791785466268657</v>
+        <v>0.9823896511596514</v>
       </c>
       <c r="K14">
-        <v>0.9933889046090661</v>
+        <v>0.9958945801653128</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9842008285537436</v>
+        <v>0.986888886645766</v>
+      </c>
+      <c r="N14">
+        <v>0.9837847571459664</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9486338562401987</v>
+        <v>0.9520018506346187</v>
       </c>
       <c r="D15">
-        <v>0.9789522725530601</v>
+        <v>0.981504688179589</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9697617964303417</v>
+        <v>0.9725005534752769</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02713917277458</v>
+        <v>1.028503119058808</v>
       </c>
       <c r="J15">
-        <v>0.980146315015771</v>
+        <v>0.9833531712191659</v>
       </c>
       <c r="K15">
-        <v>0.9942081370339535</v>
+        <v>0.9967101150007446</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9852021700225753</v>
+        <v>0.9878854631514313</v>
+      </c>
+      <c r="N15">
+        <v>0.9847496455144822</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9556506652547145</v>
+        <v>0.9589836484634079</v>
       </c>
       <c r="D16">
-        <v>0.9842515089709543</v>
+        <v>0.9867806180025037</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9761329975226679</v>
+        <v>0.978841958607942</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029713951099331</v>
+        <v>1.031066379825759</v>
       </c>
       <c r="J16">
-        <v>0.9856586466359009</v>
+        <v>0.9888423794362032</v>
       </c>
       <c r="K16">
-        <v>0.9988735172344488</v>
+        <v>1.001355332877374</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9909089867652852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9935661965299799</v>
+      </c>
+      <c r="N16">
+        <v>0.990246649036809</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9599257403429876</v>
+        <v>0.9632385329411085</v>
       </c>
       <c r="D17">
-        <v>0.9874830985773212</v>
+        <v>0.9899987832669209</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9800199444156623</v>
+        <v>0.9827116791608801</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031277988297314</v>
+        <v>1.03262381439727</v>
       </c>
       <c r="J17">
-        <v>0.9890160557531622</v>
+        <v>0.9921865700418593</v>
       </c>
       <c r="K17">
-        <v>1.001714212470504</v>
+        <v>1.004184472279599</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9943876066876299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9970297811020398</v>
+      </c>
+      <c r="N17">
+        <v>0.9935955887767089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9623765516563954</v>
+        <v>0.9656781439538538</v>
       </c>
       <c r="D18">
-        <v>0.9893366490069961</v>
+        <v>0.9918448931897815</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9822500119007448</v>
+        <v>0.9849321760825059</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03217287940666</v>
+        <v>1.033515057276265</v>
       </c>
       <c r="J18">
-        <v>0.9909403523111115</v>
+        <v>0.9941035749836672</v>
       </c>
       <c r="K18">
-        <v>1.003342019867069</v>
+        <v>1.005805895010868</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9963823325390436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9990161693615947</v>
+      </c>
+      <c r="N18">
+        <v>0.9955153160854178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9632052059570066</v>
+        <v>0.9665030717548182</v>
       </c>
       <c r="D19">
-        <v>0.9899635110421603</v>
+        <v>0.9924692807859777</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9830043184019398</v>
+        <v>0.9856832959161062</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032475154802364</v>
+        <v>1.033816121332588</v>
       </c>
       <c r="J19">
-        <v>0.9915909051376124</v>
+        <v>0.9947517086968714</v>
       </c>
       <c r="K19">
-        <v>1.003892278537247</v>
+        <v>1.006354033776227</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9970568550981278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9996879184336958</v>
+      </c>
+      <c r="N19">
+        <v>0.9961643702228367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9594715482387225</v>
+        <v>0.9627864461767205</v>
       </c>
       <c r="D20">
-        <v>0.9871396671188721</v>
+        <v>0.9896567509490698</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9796068018812811</v>
+        <v>0.9823003344336062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031112001813651</v>
+        <v>1.03245851487634</v>
       </c>
       <c r="J20">
-        <v>0.988659402320199</v>
+        <v>0.9918312906020887</v>
       </c>
       <c r="K20">
-        <v>1.001412483230955</v>
+        <v>1.003883945297959</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9940179767706016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9966617186715315</v>
+      </c>
+      <c r="N20">
+        <v>0.993239804799383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9468107142052313</v>
+        <v>0.9501882008485235</v>
       </c>
       <c r="D21">
-        <v>0.9775764486633961</v>
+        <v>0.9801351882053492</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9681081598974951</v>
+        <v>0.9708549798349166</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026468745696874</v>
+        <v>1.027835827603494</v>
       </c>
       <c r="J21">
-        <v>0.9787137960026754</v>
+        <v>0.9819269612502926</v>
       </c>
       <c r="K21">
-        <v>0.9929954700959384</v>
+        <v>0.9955029385111485</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.9837200152398902</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9864103818211357</v>
+      </c>
+      <c r="N21">
+        <v>0.9833214101638645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9384012710307236</v>
+        <v>0.9418247661031414</v>
       </c>
       <c r="D22">
-        <v>0.9712363233125765</v>
+        <v>0.9738257370981761</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9604901229011652</v>
+        <v>0.9632759374621037</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023369495992802</v>
+        <v>1.024751841279977</v>
       </c>
       <c r="J22">
-        <v>0.9721051377888356</v>
+        <v>0.9753490931458678</v>
       </c>
       <c r="K22">
-        <v>0.9873999717444923</v>
+        <v>0.9899341761321824</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9768871248961816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9796117812340083</v>
+      </c>
+      <c r="N22">
+        <v>0.9767342007322395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9429053141836848</v>
+        <v>0.9463037046845175</v>
       </c>
       <c r="D23">
-        <v>0.9746307967026097</v>
+        <v>0.9772034688680662</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9645683330401509</v>
+        <v>0.9673328872934073</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025030775812365</v>
+        <v>1.026404780015412</v>
       </c>
       <c r="J23">
-        <v>0.9756448665430715</v>
+        <v>0.9788719798223586</v>
       </c>
       <c r="K23">
-        <v>0.9903972377996783</v>
+        <v>0.9929168294576252</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9805459905518963</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9832519358927435</v>
+      </c>
+      <c r="N23">
+        <v>0.9802620903118919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9596769096043661</v>
+        <v>0.9629908544695388</v>
       </c>
       <c r="D24">
-        <v>0.9872949455263783</v>
+        <v>0.9898113959549339</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9797935973707163</v>
+        <v>0.9824863161136329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031187057445691</v>
+        <v>1.032533259479516</v>
       </c>
       <c r="J24">
-        <v>0.988820663289678</v>
+        <v>0.991991929445445</v>
       </c>
       <c r="K24">
-        <v>1.00154891125704</v>
+        <v>1.004019828989315</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9941851020892024</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9968281343901998</v>
+      </c>
+      <c r="N24">
+        <v>0.993400671768322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9774806815834626</v>
+        <v>0.9807189350767579</v>
       </c>
       <c r="D25">
-        <v>1.000773408761608</v>
+        <v>1.003239693568695</v>
       </c>
       <c r="E25">
         <v>0.9463835801717733</v>
       </c>
       <c r="F25">
-        <v>0.9960216270253365</v>
+        <v>0.9986494491063505</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037656081626804</v>
+        <v>1.03897787481856</v>
       </c>
       <c r="J25">
-        <v>1.002790426147537</v>
+        <v>1.005913074852743</v>
       </c>
       <c r="K25">
-        <v>1.013359730407844</v>
+        <v>1.015787924783845</v>
       </c>
       <c r="L25">
         <v>0.9598754494005611</v>
       </c>
       <c r="M25">
-        <v>1.008682017654581</v>
+        <v>1.011268766879063</v>
+      </c>
+      <c r="N25">
+        <v>1.007341586798877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9937915991269208</v>
+        <v>0.981510925993208</v>
       </c>
       <c r="D2">
-        <v>1.013158139009723</v>
+        <v>1.002441109259239</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.010609368483149</v>
+        <v>0.957356863608691</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043672599648381</v>
+        <v>1.034286486365478</v>
       </c>
       <c r="J2">
-        <v>1.016159601443368</v>
+        <v>1.004259064433888</v>
       </c>
       <c r="K2">
-        <v>1.024437153889612</v>
+        <v>1.013866539994063</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.021922850510129</v>
+        <v>0.9694440856898643</v>
       </c>
       <c r="N2">
-        <v>1.017602664632553</v>
+        <v>1.005685227495508</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002762522188579</v>
+        <v>0.9892241729613698</v>
       </c>
       <c r="D3">
-        <v>1.01996985171227</v>
+        <v>1.008221786535983</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.018836587240584</v>
+        <v>0.9680103791572684</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046859086680448</v>
+        <v>1.036502562326013</v>
       </c>
       <c r="J3">
-        <v>1.02317816031716</v>
+        <v>1.010012971592225</v>
       </c>
       <c r="K3">
-        <v>1.030353434924291</v>
+        <v>1.018750537918964</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.02923399254845</v>
+        <v>0.9790696249210804</v>
       </c>
       <c r="N3">
-        <v>1.024631190664985</v>
+        <v>1.011447305861993</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008352875388184</v>
+        <v>0.9940375802689815</v>
       </c>
       <c r="D4">
-        <v>1.02421597300009</v>
+        <v>1.011831347728241</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.023971626730784</v>
+        <v>0.9746462536662795</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048827935376369</v>
+        <v>1.037871407267618</v>
       </c>
       <c r="J4">
-        <v>1.027545300573329</v>
+        <v>1.013595044931744</v>
       </c>
       <c r="K4">
-        <v>1.034030660172565</v>
+        <v>1.021789045577859</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.033789094211158</v>
+        <v>0.9850606242305846</v>
       </c>
       <c r="N4">
-        <v>1.029004532761236</v>
+        <v>1.015034466156524</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010655208874176</v>
+        <v>0.9960214038297756</v>
       </c>
       <c r="D5">
-        <v>1.025964858212568</v>
+        <v>1.013319405415299</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.026088256927013</v>
+        <v>0.9773788488867596</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04963465953502</v>
+        <v>1.038432134155399</v>
       </c>
       <c r="J5">
-        <v>1.029342210562924</v>
+        <v>1.015069295066347</v>
       </c>
       <c r="K5">
-        <v>1.035542688029123</v>
+        <v>1.023039054148195</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.035664723997469</v>
+        <v>0.987526507698042</v>
       </c>
       <c r="N5">
-        <v>1.030803994569125</v>
+        <v>1.016510809895417</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011039069242377</v>
+        <v>0.9963522419856372</v>
       </c>
       <c r="D6">
-        <v>1.026256449245296</v>
+        <v>1.013567585409265</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.026441258505904</v>
+        <v>0.9778344366855207</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049768916792255</v>
+        <v>1.038525441638138</v>
       </c>
       <c r="J6">
-        <v>1.029641703828389</v>
+        <v>1.015315029543655</v>
       </c>
       <c r="K6">
-        <v>1.035794639225545</v>
+        <v>1.023247378535585</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.035977417863379</v>
+        <v>0.9879375586048432</v>
       </c>
       <c r="N6">
-        <v>1.031103913149379</v>
+        <v>1.016756893343869</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008383822972061</v>
+        <v>0.994064240882098</v>
       </c>
       <c r="D7">
-        <v>1.024239480780231</v>
+        <v>1.011851344340489</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.024000071107804</v>
+        <v>0.9746829855650249</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048838795695862</v>
+        <v>1.037878956570047</v>
       </c>
       <c r="J7">
-        <v>1.027569460997971</v>
+        <v>1.013614865670772</v>
       </c>
       <c r="K7">
-        <v>1.034050994251173</v>
+        <v>1.021805853635872</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.033814307635169</v>
+        <v>0.9850937756213541</v>
       </c>
       <c r="N7">
-        <v>1.029028727496453</v>
+        <v>1.015054315043275</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9968699857819702</v>
+        <v>0.9841561937531077</v>
       </c>
       <c r="D8">
-        <v>1.015495211794254</v>
+        <v>1.004423060927326</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.013430735342675</v>
+        <v>0.9610135365907212</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044769569947877</v>
+        <v>1.035049441787553</v>
       </c>
       <c r="J8">
-        <v>1.018569374342966</v>
+        <v>1.006234191128813</v>
       </c>
       <c r="K8">
-        <v>1.026469302869692</v>
+        <v>1.015543450527543</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.024431800908097</v>
+        <v>0.9727488486109881</v>
       </c>
       <c r="N8">
-        <v>1.020015859686073</v>
+        <v>1.00766315909689</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9747590844887395</v>
+        <v>0.9651937140781802</v>
       </c>
       <c r="D9">
-        <v>0.9987220504032754</v>
+        <v>0.9902308904597587</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9932084443406224</v>
+        <v>0.9347152065750964</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036820274382361</v>
+        <v>1.029521037507508</v>
       </c>
       <c r="J9">
-        <v>1.001235768756514</v>
+        <v>0.9920384148173493</v>
       </c>
       <c r="K9">
-        <v>1.01183589553156</v>
+        <v>1.00348447841606</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>1.006412679312317</v>
+        <v>0.9489644269125679</v>
       </c>
       <c r="N9">
-        <v>1.002657638391496</v>
+        <v>0.9934472231547865</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9584969065320305</v>
+        <v>0.9513053659684462</v>
       </c>
       <c r="D10">
-        <v>0.9864126074068604</v>
+        <v>0.9798637847573555</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9783995231844573</v>
+        <v>0.915298721887376</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03088798031423</v>
+        <v>1.025398521720249</v>
       </c>
       <c r="J10">
-        <v>0.9884597603916082</v>
+        <v>0.9815936585046876</v>
       </c>
       <c r="K10">
-        <v>1.001031597856599</v>
+        <v>0.9946063780361186</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9931700492115664</v>
+        <v>0.9313864667579274</v>
       </c>
       <c r="N10">
-        <v>0.9898634866292837</v>
+        <v>0.9829876340901308</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9510110564663082</v>
+        <v>0.9449296155920139</v>
       </c>
       <c r="D11">
-        <v>0.9807564784941745</v>
+        <v>0.9751138661360013</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.971601490426618</v>
+        <v>0.9063302230805609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028138648457504</v>
+        <v>1.023489535579716</v>
       </c>
       <c r="J11">
-        <v>0.982574047421587</v>
+        <v>0.9767874634089034</v>
       </c>
       <c r="K11">
-        <v>0.9960506587415848</v>
+        <v>0.9905208700909731</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9870795963072192</v>
+        <v>0.9232648018823909</v>
       </c>
       <c r="N11">
-        <v>0.9839694152717444</v>
+        <v>0.9781746136460323</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9481549888191881</v>
+        <v>0.9425000201396642</v>
       </c>
       <c r="D12">
-        <v>0.9786004183538718</v>
+        <v>0.9733055010447811</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9690110438045375</v>
+        <v>0.9029024107770656</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027087096769465</v>
+        <v>1.022759705437887</v>
       </c>
       <c r="J12">
-        <v>0.9803279793504279</v>
+        <v>0.9749542682763765</v>
       </c>
       <c r="K12">
-        <v>0.9941494143516489</v>
+        <v>0.9889626402742295</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9847570399095414</v>
+        <v>0.9201604915358037</v>
       </c>
       <c r="N12">
-        <v>0.9817201575262966</v>
+        <v>0.9763388151661464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.948771200043151</v>
+        <v>0.9430240799691028</v>
       </c>
       <c r="D13">
-        <v>0.979065506150035</v>
+        <v>0.9736954820385698</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9695697951955681</v>
+        <v>0.9036422802033159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027314088418492</v>
+        <v>1.022917234121523</v>
       </c>
       <c r="J13">
-        <v>0.9808125990207747</v>
+        <v>0.9753497627643732</v>
       </c>
       <c r="K13">
-        <v>0.9945596524233732</v>
+        <v>0.9892988081046171</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9852580869917582</v>
+        <v>0.9208305390643525</v>
       </c>
       <c r="N13">
-        <v>0.9822054654121616</v>
+        <v>0.9767348713016805</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9507765696027202</v>
+        <v>0.9447300813060203</v>
       </c>
       <c r="D14">
-        <v>0.9805794219718612</v>
+        <v>0.9749653157013494</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9713887443777072</v>
+        <v>0.9060489278083643</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028052366149531</v>
+        <v>1.023429644643687</v>
       </c>
       <c r="J14">
-        <v>0.9823896511596514</v>
+        <v>0.9766369440581301</v>
       </c>
       <c r="K14">
-        <v>0.9958945801653128</v>
+        <v>0.990392925214959</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.986888886645766</v>
+        <v>0.9230100560502812</v>
       </c>
       <c r="N14">
-        <v>0.9837847571459664</v>
+        <v>0.978023880540516</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9520018506346187</v>
+        <v>0.9457728430865842</v>
       </c>
       <c r="D15">
-        <v>0.981504688179589</v>
+        <v>0.9757417067149851</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9725005534752769</v>
+        <v>0.9075185445734778</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028503119058808</v>
+        <v>1.023742537646092</v>
       </c>
       <c r="J15">
-        <v>0.9833531712191659</v>
+        <v>0.9774234855953619</v>
       </c>
       <c r="K15">
-        <v>0.9967101150007446</v>
+        <v>0.9910615073102337</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9878854631514313</v>
+        <v>0.9243409609193012</v>
       </c>
       <c r="N15">
-        <v>0.9847496455144822</v>
+        <v>0.9788115390569482</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9589836484634079</v>
+        <v>0.9517203111192283</v>
       </c>
       <c r="D16">
-        <v>0.9867806180025037</v>
+        <v>0.9801731319955991</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.978841958607942</v>
+        <v>0.9158811243436769</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031066379825759</v>
+        <v>1.025522431300496</v>
       </c>
       <c r="J16">
-        <v>0.9888423794362032</v>
+        <v>0.9819062212598422</v>
       </c>
       <c r="K16">
-        <v>1.001355332877374</v>
+        <v>0.994872076554986</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9935661965299799</v>
+        <v>0.9319138433777768</v>
       </c>
       <c r="N16">
-        <v>0.990246649036809</v>
+        <v>0.9833006407202488</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9632385329411085</v>
+        <v>0.9553495583640355</v>
       </c>
       <c r="D17">
-        <v>0.9899987832669209</v>
+        <v>0.9828798585013475</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9827116791608801</v>
+        <v>0.9209686719482533</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03262381439727</v>
+        <v>1.026604353965739</v>
       </c>
       <c r="J17">
-        <v>0.9921865700418593</v>
+        <v>0.9846387334917635</v>
       </c>
       <c r="K17">
-        <v>1.004184472279599</v>
+        <v>0.9971948756521609</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9970297811020398</v>
+        <v>0.9365204683149679</v>
       </c>
       <c r="N17">
-        <v>0.9935955887767089</v>
+        <v>0.986037033432963</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9656781439538538</v>
+        <v>0.9574320424670957</v>
       </c>
       <c r="D18">
-        <v>0.9918448931897815</v>
+        <v>0.984433843954109</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9849321760825059</v>
+        <v>0.9238829652495167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033515057276265</v>
+        <v>1.027223628852033</v>
       </c>
       <c r="J18">
-        <v>0.9941035749836672</v>
+        <v>0.9862056143157368</v>
       </c>
       <c r="K18">
-        <v>1.005805895010868</v>
+        <v>0.9985267903217745</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9990161693615947</v>
+        <v>0.9391590399536025</v>
       </c>
       <c r="N18">
-        <v>0.9955153160854178</v>
+        <v>0.98760613940743</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9665030717548182</v>
+        <v>0.9581364727314218</v>
       </c>
       <c r="D19">
-        <v>0.9924692807859777</v>
+        <v>0.9849596384909307</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9856832959161062</v>
+        <v>0.9248679741390206</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033816121332588</v>
+        <v>1.027432843789253</v>
       </c>
       <c r="J19">
-        <v>0.9947517086968714</v>
+        <v>0.986735456102799</v>
       </c>
       <c r="K19">
-        <v>1.006354033776227</v>
+        <v>0.9989771704398407</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9996879184336958</v>
+        <v>0.9400508120568984</v>
       </c>
       <c r="N19">
-        <v>0.9961643702228367</v>
+        <v>0.9881367336306037</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9627864461767205</v>
+        <v>0.9549637782612053</v>
       </c>
       <c r="D20">
-        <v>0.9896567509490698</v>
+        <v>0.9825920498665444</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9823003344336062</v>
+        <v>0.920428408023352</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03245851487634</v>
+        <v>1.026489507767104</v>
       </c>
       <c r="J20">
-        <v>0.9918312906020887</v>
+        <v>0.984348383580374</v>
       </c>
       <c r="K20">
-        <v>1.003883945297959</v>
+        <v>0.9969480630144881</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9966617186715315</v>
+        <v>0.9360312984769493</v>
       </c>
       <c r="N20">
-        <v>0.993239804799383</v>
+        <v>0.985746271191396</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9501882008485235</v>
+        <v>0.9442294629875744</v>
       </c>
       <c r="D21">
-        <v>0.9801351882053492</v>
+        <v>0.9745926404217842</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9708549798349166</v>
+        <v>0.9053430054355092</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027835827603494</v>
+        <v>1.023279344448189</v>
       </c>
       <c r="J21">
-        <v>0.9819269612502926</v>
+        <v>0.9762592735121212</v>
       </c>
       <c r="K21">
-        <v>0.9955029385111485</v>
+        <v>0.9900718983148395</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9864103818211357</v>
+        <v>0.9223707587462511</v>
       </c>
       <c r="N21">
-        <v>0.9833214101638645</v>
+        <v>0.9776456736590123</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9418247661031414</v>
+        <v>0.9371208538973338</v>
       </c>
       <c r="D22">
-        <v>0.9738257370981761</v>
+        <v>0.9693051951343349</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9632759374621037</v>
+        <v>0.8952917158814611</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024751841279977</v>
+        <v>1.021139565451144</v>
       </c>
       <c r="J22">
-        <v>0.9753490931458678</v>
+        <v>0.97089236035676</v>
       </c>
       <c r="K22">
-        <v>0.9899341761321824</v>
+        <v>0.9855102722202389</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9796117812340083</v>
+        <v>0.913268017330391</v>
       </c>
       <c r="N22">
-        <v>0.9767342007322395</v>
+        <v>0.9722711388713767</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9463037046845175</v>
+        <v>0.9409260434249307</v>
       </c>
       <c r="D23">
-        <v>0.9772034688680662</v>
+        <v>0.9721344899994732</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9673328872934073</v>
+        <v>0.9006785936338932</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026404780015412</v>
+        <v>1.022286238624739</v>
       </c>
       <c r="J23">
-        <v>0.9788719798223586</v>
+        <v>0.9737661767050434</v>
       </c>
       <c r="K23">
-        <v>0.9929168294576252</v>
+        <v>0.9879527909419539</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9832519358927435</v>
+        <v>0.9181465309880411</v>
       </c>
       <c r="N23">
-        <v>0.9802620903118919</v>
+        <v>0.9751490363685061</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9629908544695388</v>
+        <v>0.9551382014590357</v>
       </c>
       <c r="D24">
-        <v>0.9898113959549339</v>
+        <v>0.9827221744901331</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011825</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>0.9824863161136329</v>
+        <v>0.9206726935003855</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032533259479516</v>
+        <v>1.026541438105262</v>
       </c>
       <c r="J24">
-        <v>0.991991929445445</v>
+        <v>0.9844796630875178</v>
       </c>
       <c r="K24">
-        <v>1.004019828989315</v>
+        <v>0.9970596575688468</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>0.953371659644245</v>
       </c>
       <c r="M24">
-        <v>0.9968281343901998</v>
+        <v>0.9362524820228814</v>
       </c>
       <c r="N24">
-        <v>0.993400671768322</v>
+        <v>0.9858777371304976</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9807189350767579</v>
+        <v>0.9702961891087688</v>
       </c>
       <c r="D25">
-        <v>1.003239693568695</v>
+        <v>0.9940459563979396</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9463835801717732</v>
       </c>
       <c r="F25">
-        <v>0.9986494491063505</v>
+        <v>0.941812860782332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03897787481856</v>
+        <v>1.03102130027574</v>
       </c>
       <c r="J25">
-        <v>1.005913074852743</v>
+        <v>0.995866290864047</v>
       </c>
       <c r="K25">
-        <v>1.015787924783845</v>
+        <v>1.006737409792385</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.959875449400561</v>
       </c>
       <c r="M25">
-        <v>1.011268766879063</v>
+        <v>0.9553870246089492</v>
       </c>
       <c r="N25">
-        <v>1.007341586798877</v>
+        <v>0.9972805352245342</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.981510925993208</v>
+        <v>0.9985393043569301</v>
       </c>
       <c r="D2">
-        <v>1.002441109259239</v>
+        <v>1.01621593820746</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.957356863608691</v>
+        <v>0.9753168043595701</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034286486365478</v>
+        <v>1.04233808856993</v>
       </c>
       <c r="J2">
-        <v>1.004259064433888</v>
+        <v>1.020763792528731</v>
       </c>
       <c r="K2">
-        <v>1.013866539994063</v>
+        <v>1.027453888912074</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9694440856898643</v>
+        <v>0.9871310734434487</v>
       </c>
       <c r="N2">
-        <v>1.005685227495508</v>
+        <v>1.010987837969622</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9892241729613698</v>
+        <v>1.002323502549661</v>
       </c>
       <c r="D3">
-        <v>1.008221786535983</v>
+        <v>1.018886077252465</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9680103791572684</v>
+        <v>0.9817510887282064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036502562326013</v>
+        <v>1.043448045412666</v>
       </c>
       <c r="J3">
-        <v>1.010012971592225</v>
+        <v>1.02275102633044</v>
       </c>
       <c r="K3">
-        <v>1.018750537918964</v>
+        <v>1.029282878146942</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9790696249210804</v>
+        <v>0.9926229185266203</v>
       </c>
       <c r="N3">
-        <v>1.011447305861993</v>
+        <v>1.011642622753034</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9940375802689815</v>
+        <v>1.004720065765682</v>
       </c>
       <c r="D4">
-        <v>1.011831347728241</v>
+        <v>1.020578524499017</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9746462536662795</v>
+        <v>0.9858151249183053</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037871407267618</v>
+        <v>1.044138876037586</v>
       </c>
       <c r="J4">
-        <v>1.013595044931744</v>
+        <v>1.024003797605844</v>
       </c>
       <c r="K4">
-        <v>1.021789045577859</v>
+        <v>1.030434770437536</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9850606242305846</v>
+        <v>0.996087818408823</v>
       </c>
       <c r="N4">
-        <v>1.015034466156524</v>
+        <v>1.012055434692674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9960214038297756</v>
+        <v>1.005715535864897</v>
       </c>
       <c r="D5">
-        <v>1.013319405415299</v>
+        <v>1.021281827372031</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9773788488867596</v>
+        <v>0.9875009768971221</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038432134155399</v>
+        <v>1.044422891190423</v>
       </c>
       <c r="J5">
-        <v>1.015069295066347</v>
+        <v>1.024522776444196</v>
       </c>
       <c r="K5">
-        <v>1.023039054148195</v>
+        <v>1.030911673461633</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.987526507698042</v>
+        <v>0.9975241784907999</v>
       </c>
       <c r="N5">
-        <v>1.016510809895417</v>
+        <v>1.012226454239697</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9963522419856372</v>
+        <v>1.005881985123778</v>
       </c>
       <c r="D6">
-        <v>1.013567585409265</v>
+        <v>1.021399441111182</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9778344366855207</v>
+        <v>0.9877827407917199</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038525441638138</v>
+        <v>1.04447020678315</v>
       </c>
       <c r="J6">
-        <v>1.015315029543655</v>
+        <v>1.024609471226101</v>
       </c>
       <c r="K6">
-        <v>1.023247378535585</v>
+        <v>1.030991322282695</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9879375586048432</v>
+        <v>0.9977641866488461</v>
       </c>
       <c r="N6">
-        <v>1.016756893343869</v>
+        <v>1.012255023183209</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.994064240882098</v>
+        <v>1.004733414075285</v>
       </c>
       <c r="D7">
-        <v>1.011851344340489</v>
+        <v>1.020587953970778</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9746829855650249</v>
+        <v>0.98583773899858</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037878956570047</v>
+        <v>1.044142696061376</v>
       </c>
       <c r="J7">
-        <v>1.013614865670772</v>
+        <v>1.024010762122067</v>
       </c>
       <c r="K7">
-        <v>1.021805853635872</v>
+        <v>1.030441171460649</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9850937756213541</v>
+        <v>0.9961070896144909</v>
       </c>
       <c r="N7">
-        <v>1.015054315043275</v>
+        <v>1.012057729692543</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9841561937531077</v>
+        <v>0.9998292325391465</v>
       </c>
       <c r="D8">
-        <v>1.004423060927326</v>
+        <v>1.017125791656616</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9610135365907212</v>
+        <v>0.977512577133559</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035049441787553</v>
+        <v>1.042718964896519</v>
       </c>
       <c r="J8">
-        <v>1.006234191128813</v>
+        <v>1.021442389557199</v>
       </c>
       <c r="K8">
-        <v>1.015543450527543</v>
+        <v>1.028078674436346</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.9727488486109881</v>
+        <v>0.9890060240002965</v>
       </c>
       <c r="N8">
-        <v>1.00766315909689</v>
+        <v>1.011211425988072</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9651937140781802</v>
+        <v>0.9907685762523186</v>
       </c>
       <c r="D9">
-        <v>0.9902308904597587</v>
+        <v>1.010742509858626</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9347152065750964</v>
+        <v>0.9620268515021489</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029521037507508</v>
+        <v>1.039993378715554</v>
       </c>
       <c r="J9">
-        <v>0.9920384148173493</v>
+        <v>1.016651584952928</v>
       </c>
       <c r="K9">
-        <v>1.00348447841606</v>
+        <v>1.023663668950326</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9489644269125679</v>
+        <v>0.9757676039949712</v>
       </c>
       <c r="N9">
-        <v>0.9934472231547865</v>
+        <v>1.009633086825449</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9513053659684462</v>
+        <v>0.9844163393647788</v>
       </c>
       <c r="D10">
-        <v>0.9798637847573555</v>
+        <v>1.006278895887486</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.915298721887376</v>
+        <v>0.9510709013198797</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025398521720249</v>
+        <v>1.038019898996169</v>
       </c>
       <c r="J10">
-        <v>0.9815936585046876</v>
+        <v>1.013262186740518</v>
       </c>
       <c r="K10">
-        <v>0.9946063780361186</v>
+        <v>1.020535700862065</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9313864667579274</v>
+        <v>0.966383592997873</v>
       </c>
       <c r="N10">
-        <v>0.9829876340901308</v>
+        <v>1.008516691738515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9449296155920139</v>
+        <v>0.9815843895836303</v>
       </c>
       <c r="D11">
-        <v>0.9751138661360013</v>
+        <v>1.004292281553457</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9063302230805609</v>
+        <v>0.9461557985289394</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023489535579716</v>
+        <v>1.037125616987725</v>
       </c>
       <c r="J11">
-        <v>0.9767874634089034</v>
+        <v>1.011743867027785</v>
       </c>
       <c r="K11">
-        <v>0.9905208700909731</v>
+        <v>1.019133703165944</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9232648018823909</v>
+        <v>0.9621699608615015</v>
       </c>
       <c r="N11">
-        <v>0.9781746136460323</v>
+        <v>1.008016662318157</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9425000201396642</v>
+        <v>0.9805195593284252</v>
       </c>
       <c r="D12">
-        <v>0.9733055010447811</v>
+        <v>1.003545858911061</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9029024107770656</v>
+        <v>0.9443023880529167</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022759705437887</v>
+        <v>1.036787220334756</v>
       </c>
       <c r="J12">
-        <v>0.9749542682763765</v>
+        <v>1.011171876873122</v>
       </c>
       <c r="K12">
-        <v>0.9889626402742295</v>
+        <v>1.018605439705502</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9201604915358037</v>
+        <v>0.9605805529046006</v>
       </c>
       <c r="N12">
-        <v>0.9763388151661464</v>
+        <v>1.007828300435879</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9430240799691028</v>
+        <v>0.9807485652997526</v>
       </c>
       <c r="D13">
-        <v>0.9736954820385698</v>
+        <v>1.003706361070226</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9036422802033159</v>
+        <v>0.9447012400290831</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022917234121523</v>
+        <v>1.036860093277645</v>
       </c>
       <c r="J13">
-        <v>0.9753497627643732</v>
+        <v>1.011294940425328</v>
       </c>
       <c r="K13">
-        <v>0.9892988081046171</v>
+        <v>1.018719099358305</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9208305390643525</v>
+        <v>0.960922614052282</v>
       </c>
       <c r="N13">
-        <v>0.9767348713016805</v>
+        <v>1.007868825887035</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9447300813060203</v>
+        <v>0.9814966380958973</v>
       </c>
       <c r="D14">
-        <v>0.9749653157013494</v>
+        <v>1.004230758069186</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9060489278083643</v>
+        <v>0.946003172962521</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023429644643687</v>
+        <v>1.037097773422416</v>
       </c>
       <c r="J14">
-        <v>0.9766369440581301</v>
+        <v>1.011696752177502</v>
       </c>
       <c r="K14">
-        <v>0.990392925214959</v>
+        <v>1.019090191869985</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9230100560502812</v>
+        <v>0.9620390855818109</v>
       </c>
       <c r="N14">
-        <v>0.978023880540516</v>
+        <v>1.008001146690556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9457728430865842</v>
+        <v>0.9819558170805958</v>
       </c>
       <c r="D15">
-        <v>0.9757417067149851</v>
+        <v>1.004552716241529</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>0.9075185445734778</v>
+        <v>0.9468015995204441</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023742537646092</v>
+        <v>1.03724338394099</v>
       </c>
       <c r="J15">
-        <v>0.9774234855953619</v>
+        <v>1.011943246456552</v>
       </c>
       <c r="K15">
-        <v>0.9910615073102337</v>
+        <v>1.019317829447999</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9494987508782939</v>
       </c>
       <c r="M15">
-        <v>0.9243409609193012</v>
+        <v>0.9627237098690837</v>
       </c>
       <c r="N15">
-        <v>0.9788115390569482</v>
+        <v>1.0080823214568</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9517203111192283</v>
+        <v>0.9846025141109025</v>
       </c>
       <c r="D16">
-        <v>0.9801731319955991</v>
+        <v>1.00640957178848</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="F16">
-        <v>0.9158811243436769</v>
+        <v>0.9513933280731038</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025522431300496</v>
+        <v>1.038078391312661</v>
       </c>
       <c r="J16">
-        <v>0.9819062212598422</v>
+        <v>1.013361851045509</v>
       </c>
       <c r="K16">
-        <v>0.994872076554986</v>
+        <v>1.020627715227213</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175716</v>
       </c>
       <c r="M16">
-        <v>0.9319138433777768</v>
+        <v>0.9666599303249851</v>
       </c>
       <c r="N16">
-        <v>0.9833006407202488</v>
+        <v>1.00854951586904</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9553495583640355</v>
+        <v>0.9862404569111939</v>
       </c>
       <c r="D17">
-        <v>0.9828798585013475</v>
+        <v>1.007559630015173</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.9209686719482533</v>
+        <v>0.9542264282202348</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026604353965739</v>
+        <v>1.038591357944165</v>
       </c>
       <c r="J17">
-        <v>0.9846387334917635</v>
+        <v>1.01423785964945</v>
       </c>
       <c r="K17">
-        <v>0.9971948756521609</v>
+        <v>1.021436397249731</v>
       </c>
       <c r="L17">
         <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9365204683149679</v>
+        <v>0.9690876335108068</v>
       </c>
       <c r="N17">
-        <v>0.986037033432963</v>
+        <v>1.008838034965718</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9574320424670957</v>
+        <v>0.9871880378093094</v>
       </c>
       <c r="D18">
-        <v>0.984433843954109</v>
+        <v>1.008225274634655</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>0.9238829652495167</v>
+        <v>0.9558625650934625</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027223628852033</v>
+        <v>1.038886745039927</v>
       </c>
       <c r="J18">
-        <v>0.9862056143157368</v>
+        <v>1.01474395902286</v>
       </c>
       <c r="K18">
-        <v>0.9985267903217745</v>
+        <v>1.02190352364143</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>0.9391590399536025</v>
+        <v>0.9704892938678228</v>
       </c>
       <c r="N18">
-        <v>0.98760613940743</v>
+        <v>1.009004728845262</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9581364727314218</v>
+        <v>0.9875098348723516</v>
       </c>
       <c r="D19">
-        <v>0.9849596384909307</v>
+        <v>1.008451378298088</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>0.9248679741390206</v>
+        <v>0.9564177280585258</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027432843789253</v>
+        <v>1.03898682405601</v>
       </c>
       <c r="J19">
-        <v>0.986735456102799</v>
+        <v>1.014915712899376</v>
       </c>
       <c r="K19">
-        <v>0.9989771704398407</v>
+        <v>1.022062037734881</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816594</v>
       </c>
       <c r="M19">
-        <v>0.9400508120568984</v>
+        <v>0.9709648339116359</v>
       </c>
       <c r="N19">
-        <v>0.9881367336306037</v>
+        <v>1.009061300510681</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9549637782612053</v>
+        <v>0.9860655331062991</v>
       </c>
       <c r="D20">
-        <v>0.9825920498665444</v>
+        <v>1.007436776783655</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.920428408023352</v>
+        <v>0.9539241697568802</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026489507767104</v>
+        <v>1.038536718083834</v>
       </c>
       <c r="J20">
-        <v>0.984348383580374</v>
+        <v>1.014144377881335</v>
       </c>
       <c r="K20">
-        <v>0.9969480630144881</v>
+        <v>1.021350107866941</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.9360312984769493</v>
+        <v>0.968828662827906</v>
       </c>
       <c r="N20">
-        <v>0.985746271191396</v>
+        <v>1.008807245428963</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9442294629875744</v>
+        <v>0.9812767117282443</v>
       </c>
       <c r="D21">
-        <v>0.9745926404217842</v>
+        <v>1.004076574540538</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9053430054355092</v>
+        <v>0.9456205686677087</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023279344448189</v>
+        <v>1.037027956361282</v>
       </c>
       <c r="J21">
-        <v>0.9762592735121212</v>
+        <v>1.01157865340051</v>
       </c>
       <c r="K21">
-        <v>0.9900718983148395</v>
+        <v>1.01898112437164</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9223707587462511</v>
+        <v>0.9617109972145532</v>
       </c>
       <c r="N21">
-        <v>0.9776456736590123</v>
+        <v>1.007962255188732</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9371208538973338</v>
+        <v>0.9781906660562413</v>
       </c>
       <c r="D22">
-        <v>0.9693051951343349</v>
+        <v>1.00191443879211</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.8952917158814611</v>
+        <v>0.940238216515956</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021139565451144</v>
+        <v>1.036043209008589</v>
       </c>
       <c r="J22">
-        <v>0.97089236035676</v>
+        <v>1.009918861108566</v>
       </c>
       <c r="K22">
-        <v>0.9855102722202389</v>
+        <v>1.017448065437886</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.913268017330391</v>
+        <v>0.9570944060414637</v>
       </c>
       <c r="N22">
-        <v>0.9722711388713767</v>
+        <v>1.007415693823647</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9409260434249307</v>
+        <v>0.9798340035957679</v>
       </c>
       <c r="D23">
-        <v>0.9721344899994732</v>
+        <v>1.003065462906342</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9006785936338932</v>
+        <v>0.9431075450209248</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.022286238624739</v>
+        <v>1.036568755458776</v>
       </c>
       <c r="J23">
-        <v>0.9737661767050434</v>
+        <v>1.010803311519924</v>
       </c>
       <c r="K23">
-        <v>0.9879527909419539</v>
+        <v>1.018265026261941</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9181465309880411</v>
+        <v>0.9595557676572332</v>
       </c>
       <c r="N23">
-        <v>0.9751490363685061</v>
+        <v>1.007706931861879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9551382014590357</v>
+        <v>0.9861445977087923</v>
       </c>
       <c r="D24">
-        <v>0.9827221744901331</v>
+        <v>1.0074923048017</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9206726935003855</v>
+        <v>0.9540607977619033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026541438105262</v>
+        <v>1.038561419264274</v>
       </c>
       <c r="J24">
-        <v>0.9844796630875178</v>
+        <v>1.014186633262837</v>
       </c>
       <c r="K24">
-        <v>0.9970596575688468</v>
+        <v>1.021389112403575</v>
       </c>
       <c r="L24">
-        <v>0.953371659644245</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9362524820228814</v>
+        <v>0.9689457248385749</v>
       </c>
       <c r="N24">
-        <v>0.9858777371304976</v>
+        <v>1.008821162812964</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9702961891087688</v>
+        <v>0.9931635831503458</v>
       </c>
       <c r="D25">
-        <v>0.9940459563979396</v>
+        <v>1.0124280064653</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717732</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.941812860782332</v>
+        <v>0.9661351041275364</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03102130027574</v>
+        <v>1.040724745446871</v>
       </c>
       <c r="J25">
-        <v>0.995866290864047</v>
+        <v>1.01792323087705</v>
       </c>
       <c r="K25">
-        <v>1.006737409792385</v>
+        <v>1.024836409138043</v>
       </c>
       <c r="L25">
-        <v>0.959875449400561</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>0.9553870246089492</v>
+        <v>0.9792829087598069</v>
       </c>
       <c r="N25">
-        <v>0.9972805352245342</v>
+        <v>1.010051994651445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9985393043569301</v>
+        <v>1.021312911921985</v>
       </c>
       <c r="D2">
-        <v>1.01621593820746</v>
+        <v>1.026629670511691</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9753168043595701</v>
+        <v>1.019741662386892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04233808856993</v>
+        <v>1.031243529606694</v>
       </c>
       <c r="J2">
-        <v>1.020763792528731</v>
+        <v>1.026505085214512</v>
       </c>
       <c r="K2">
-        <v>1.027453888912074</v>
+        <v>1.029451757862291</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9871310734434487</v>
+        <v>1.0225840102479</v>
       </c>
       <c r="N2">
-        <v>1.010987837969622</v>
+        <v>1.012926493720188</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002323502549661</v>
+        <v>1.022083332400925</v>
       </c>
       <c r="D3">
-        <v>1.018886077252465</v>
+        <v>1.027186393188569</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9817510887282064</v>
+        <v>1.0211479559186</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043448045412666</v>
+        <v>1.031403391665112</v>
       </c>
       <c r="J3">
-        <v>1.02275102633044</v>
+        <v>1.026914003210218</v>
       </c>
       <c r="K3">
-        <v>1.029282878146942</v>
+        <v>1.029816714781862</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9926229185266203</v>
+        <v>1.023794745398038</v>
       </c>
       <c r="N3">
-        <v>1.011642622753034</v>
+        <v>1.013061193460122</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004720065765682</v>
+        <v>1.022581819946383</v>
       </c>
       <c r="D4">
-        <v>1.020578524499017</v>
+        <v>1.027546512791065</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9858151249183053</v>
+        <v>1.022057966253385</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044138876037586</v>
+        <v>1.031505374949012</v>
       </c>
       <c r="J4">
-        <v>1.024003797605844</v>
+        <v>1.027177909381216</v>
       </c>
       <c r="K4">
-        <v>1.030434770437536</v>
+        <v>1.030052045162372</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>0.996087818408823</v>
+        <v>1.024577707883929</v>
       </c>
       <c r="N4">
-        <v>1.012055434692674</v>
+        <v>1.013148120458946</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005715535864897</v>
+        <v>1.022791376909254</v>
       </c>
       <c r="D5">
-        <v>1.021281827372031</v>
+        <v>1.027697877796048</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9875009768971221</v>
+        <v>1.022440548350716</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044422891190423</v>
+        <v>1.031547899163903</v>
       </c>
       <c r="J5">
-        <v>1.024522776444196</v>
+        <v>1.027288689525006</v>
       </c>
       <c r="K5">
-        <v>1.030911673461633</v>
+        <v>1.030150780762836</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>0.9975241784907999</v>
+        <v>1.024906756772645</v>
       </c>
       <c r="N5">
-        <v>1.012226454239697</v>
+        <v>1.013184608651216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005881985123778</v>
+        <v>1.022826561994799</v>
       </c>
       <c r="D6">
-        <v>1.021399441111182</v>
+        <v>1.027723290894079</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9877827407917199</v>
+        <v>1.022504786465606</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04447020678315</v>
+        <v>1.031555018654708</v>
       </c>
       <c r="J6">
-        <v>1.024609471226101</v>
+        <v>1.027307280247423</v>
       </c>
       <c r="K6">
-        <v>1.030991322282695</v>
+        <v>1.03016734731471</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>0.9977641866488461</v>
+        <v>1.024961999238732</v>
       </c>
       <c r="N6">
-        <v>1.012255023183209</v>
+        <v>1.013190731894359</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004733414075285</v>
+        <v>1.022584620086298</v>
       </c>
       <c r="D7">
-        <v>1.020587953970778</v>
+        <v>1.027548535454251</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.98583773899858</v>
+        <v>1.022063078276159</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044142696061376</v>
+        <v>1.03150594453377</v>
       </c>
       <c r="J7">
-        <v>1.024010762122067</v>
+        <v>1.027179390283932</v>
       </c>
       <c r="K7">
-        <v>1.030441171460649</v>
+        <v>1.030053365248415</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>0.9961070896144909</v>
+        <v>1.024582105074578</v>
       </c>
       <c r="N7">
-        <v>1.012057729692543</v>
+        <v>1.01314860823593</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9998292325391465</v>
+        <v>1.021573283935093</v>
       </c>
       <c r="D8">
-        <v>1.017125791656616</v>
+        <v>1.026817841082883</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.977512577133559</v>
+        <v>1.020216918563294</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042718964896519</v>
+        <v>1.03129785737616</v>
       </c>
       <c r="J8">
-        <v>1.021442389557199</v>
+        <v>1.026643423733058</v>
       </c>
       <c r="K8">
-        <v>1.028078674436346</v>
+        <v>1.029575266363517</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9890060240002965</v>
+        <v>1.022993281506576</v>
       </c>
       <c r="N8">
-        <v>1.011211425988072</v>
+        <v>1.012972064198863</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9907685762523186</v>
+        <v>1.019791023603591</v>
       </c>
       <c r="D9">
-        <v>1.010742509858626</v>
+        <v>1.025529420051517</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9620268515021489</v>
+        <v>1.01696394902566</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039993378715554</v>
+        <v>1.030920034080462</v>
       </c>
       <c r="J9">
-        <v>1.016651584952928</v>
+        <v>1.02569371322506</v>
       </c>
       <c r="K9">
-        <v>1.023663668950326</v>
+        <v>1.028726536842608</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9757676039949712</v>
+        <v>1.020189901497378</v>
       </c>
       <c r="N9">
-        <v>1.009633086825449</v>
+        <v>1.01265919721807</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9844163393647788</v>
+        <v>1.018602800169582</v>
       </c>
       <c r="D10">
-        <v>1.006278895887486</v>
+        <v>1.024669976073618</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9510709013198797</v>
+        <v>1.014795239047474</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038019898996169</v>
+        <v>1.030660684196326</v>
       </c>
       <c r="J10">
-        <v>1.013262186740518</v>
+        <v>1.025057061579061</v>
       </c>
       <c r="K10">
-        <v>1.020535700862065</v>
+        <v>1.028156549983053</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.966383592997873</v>
+        <v>1.018318350812416</v>
       </c>
       <c r="N10">
-        <v>1.008516691738515</v>
+        <v>1.012449437880351</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9815843895836303</v>
+        <v>1.01808828564498</v>
       </c>
       <c r="D11">
-        <v>1.004292281553457</v>
+        <v>1.02429772419909</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9461557985289394</v>
+        <v>1.013856103943291</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037125616987725</v>
+        <v>1.030546617035249</v>
       </c>
       <c r="J11">
-        <v>1.011743867027785</v>
+        <v>1.024780557715747</v>
       </c>
       <c r="K11">
-        <v>1.019133703165944</v>
+        <v>1.027908759167091</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9621699608615015</v>
+        <v>1.01750728777252</v>
       </c>
       <c r="N11">
-        <v>1.008016662318157</v>
+        <v>1.012358331809703</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9805195593284252</v>
+        <v>1.01789717198772</v>
       </c>
       <c r="D12">
-        <v>1.003545858911061</v>
+        <v>1.024159438356607</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9443023880529167</v>
+        <v>1.013507252996575</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036787220334756</v>
+        <v>1.030503982341987</v>
       </c>
       <c r="J12">
-        <v>1.011171876873122</v>
+        <v>1.024677727689015</v>
       </c>
       <c r="K12">
-        <v>1.018605439705502</v>
+        <v>1.027816571592156</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9605805529046006</v>
+        <v>1.017205919025334</v>
       </c>
       <c r="N12">
-        <v>1.007828300435879</v>
+        <v>1.01232444922087</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9807485652997526</v>
+        <v>1.017938166505007</v>
       </c>
       <c r="D13">
-        <v>1.003706361070226</v>
+        <v>1.02418910179615</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9447012400290831</v>
+        <v>1.013582083421655</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036860093277645</v>
+        <v>1.030513139617143</v>
       </c>
       <c r="J13">
-        <v>1.011294940425328</v>
+        <v>1.0246997906912</v>
       </c>
       <c r="K13">
-        <v>1.018719099358305</v>
+        <v>1.027836352783686</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.960922614052282</v>
+        <v>1.017270568395474</v>
       </c>
       <c r="N13">
-        <v>1.007868825887035</v>
+        <v>1.012331719037316</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9814966380958973</v>
+        <v>1.01807248812673</v>
       </c>
       <c r="D14">
-        <v>1.004230758069186</v>
+        <v>1.024286293746007</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.946003172962521</v>
+        <v>1.013827268130811</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037097773422416</v>
+        <v>1.030543098243302</v>
       </c>
       <c r="J14">
-        <v>1.011696752177502</v>
+        <v>1.024772060284367</v>
       </c>
       <c r="K14">
-        <v>1.019090191869985</v>
+        <v>1.027901141909292</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9620390855818109</v>
+        <v>1.017482378674776</v>
       </c>
       <c r="N14">
-        <v>1.008001146690556</v>
+        <v>1.012355531914842</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9819558170805958</v>
+        <v>1.018155248128849</v>
       </c>
       <c r="D15">
-        <v>1.004552716241529</v>
+        <v>1.024346174970947</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9468015995204441</v>
+        <v>1.013978332502378</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03724338394099</v>
+        <v>1.030561521628908</v>
       </c>
       <c r="J15">
-        <v>1.011943246456552</v>
+        <v>1.024816571523923</v>
       </c>
       <c r="K15">
-        <v>1.019317829447999</v>
+        <v>1.027941041162832</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9627237098690837</v>
+        <v>1.017612868122951</v>
       </c>
       <c r="N15">
-        <v>1.0080823214568</v>
+        <v>1.012370198288797</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9846025141109025</v>
+        <v>1.018636946750636</v>
       </c>
       <c r="D16">
-        <v>1.00640957178848</v>
+        <v>1.024694679049203</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9513933280731038</v>
+        <v>1.014857564554462</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038078391312661</v>
+        <v>1.03066821726418</v>
       </c>
       <c r="J16">
-        <v>1.013361851045509</v>
+        <v>1.025075394791108</v>
       </c>
       <c r="K16">
-        <v>1.020627715227213</v>
+        <v>1.028172974390612</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9666599303249851</v>
+        <v>1.018372164015686</v>
       </c>
       <c r="N16">
-        <v>1.00854951586904</v>
+        <v>1.012455478428195</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9862404569111939</v>
+        <v>1.018939102573745</v>
       </c>
       <c r="D17">
-        <v>1.007559630015173</v>
+        <v>1.024913258627048</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9542264282202348</v>
+        <v>1.015409062248061</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038591357944165</v>
+        <v>1.030734671833354</v>
       </c>
       <c r="J17">
-        <v>1.01423785964945</v>
+        <v>1.025237526022134</v>
       </c>
       <c r="K17">
-        <v>1.021436397249731</v>
+        <v>1.028318197303041</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9690876335108068</v>
+        <v>1.018848268785445</v>
       </c>
       <c r="N17">
-        <v>1.008838034965718</v>
+        <v>1.012508897854551</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9871880378093094</v>
+        <v>1.019115344324647</v>
       </c>
       <c r="D18">
-        <v>1.008225274634655</v>
+        <v>1.025040742000123</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9558625650934625</v>
+        <v>1.015730735093065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038886745039927</v>
+        <v>1.030773263147972</v>
       </c>
       <c r="J18">
-        <v>1.01474395902286</v>
+        <v>1.025332014362137</v>
       </c>
       <c r="K18">
-        <v>1.02190352364143</v>
+        <v>1.028402808509501</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9704892938678228</v>
+        <v>1.019125908290594</v>
       </c>
       <c r="N18">
-        <v>1.009004728845262</v>
+        <v>1.012540029582198</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9875098348723516</v>
+        <v>1.019175438074999</v>
       </c>
       <c r="D19">
-        <v>1.008451378298088</v>
+        <v>1.025084208737369</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9564177280585258</v>
+        <v>1.015840416249379</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03898682405601</v>
+        <v>1.030786392855287</v>
       </c>
       <c r="J19">
-        <v>1.014915712899376</v>
+        <v>1.025364218850494</v>
       </c>
       <c r="K19">
-        <v>1.022062037734881</v>
+        <v>1.028431642635472</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9709648339116359</v>
+        <v>1.019220565371273</v>
       </c>
       <c r="N19">
-        <v>1.009061300510681</v>
+        <v>1.012550640125732</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9860655331062991</v>
+        <v>1.018906684172398</v>
       </c>
       <c r="D20">
-        <v>1.007436776783655</v>
+        <v>1.024889808173989</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9539241697568802</v>
+        <v>1.015349892457787</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038536718083834</v>
+        <v>1.030727559520905</v>
       </c>
       <c r="J20">
-        <v>1.014144377881335</v>
+        <v>1.025220139153579</v>
       </c>
       <c r="K20">
-        <v>1.021350107866941</v>
+        <v>1.02830262606639</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.968828662827906</v>
+        <v>1.018797193928944</v>
       </c>
       <c r="N20">
-        <v>1.008807245428963</v>
+        <v>1.01250316923892</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9812767117282443</v>
+        <v>1.018032933751803</v>
       </c>
       <c r="D21">
-        <v>1.004076574540538</v>
+        <v>1.024257673541962</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9456205686677087</v>
+        <v>1.013755067772909</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037027956361282</v>
+        <v>1.030534283488703</v>
       </c>
       <c r="J21">
-        <v>1.01157865340051</v>
+        <v>1.024750782114917</v>
       </c>
       <c r="K21">
-        <v>1.01898112437164</v>
+        <v>1.027882067180562</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9617109972145532</v>
+        <v>1.017420008719095</v>
       </c>
       <c r="N21">
-        <v>1.007962255188732</v>
+        <v>1.012348520766797</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9781906660562413</v>
+        <v>1.017483572281225</v>
       </c>
       <c r="D22">
-        <v>1.00191443879211</v>
+        <v>1.023860139638181</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.940238216515956</v>
+        <v>1.012752253191733</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036043209008589</v>
+        <v>1.030411229751045</v>
       </c>
       <c r="J22">
-        <v>1.009918861108566</v>
+        <v>1.024454960460597</v>
       </c>
       <c r="K22">
-        <v>1.017448065437886</v>
+        <v>1.027616794728863</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9570944060414637</v>
+        <v>1.016553515408316</v>
       </c>
       <c r="N22">
-        <v>1.007415693823647</v>
+        <v>1.012251045732159</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9798340035957679</v>
+        <v>1.017774798903499</v>
       </c>
       <c r="D23">
-        <v>1.003065462906342</v>
+        <v>1.024070887631465</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9431075450209248</v>
+        <v>1.013283873548875</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036568755458776</v>
+        <v>1.030476608085978</v>
       </c>
       <c r="J23">
-        <v>1.010803311519924</v>
+        <v>1.024611849052743</v>
       </c>
       <c r="K23">
-        <v>1.018265026261941</v>
+        <v>1.027757501078394</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9595557676572332</v>
+        <v>1.017012918095746</v>
       </c>
       <c r="N23">
-        <v>1.007706931861879</v>
+        <v>1.012302741920595</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9861445977087923</v>
+        <v>1.018921332654507</v>
       </c>
       <c r="D24">
-        <v>1.0074923048017</v>
+        <v>1.024900404456538</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9540607977619033</v>
+        <v>1.015376628757977</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038561419264274</v>
+        <v>1.030730773795617</v>
       </c>
       <c r="J24">
-        <v>1.014186633262837</v>
+        <v>1.025227995778448</v>
       </c>
       <c r="K24">
-        <v>1.021389112403575</v>
+        <v>1.028309662331108</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9689457248385749</v>
+        <v>1.018820272656111</v>
       </c>
       <c r="N24">
-        <v>1.008821162812964</v>
+        <v>1.012505757836917</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9931635831503458</v>
+        <v>1.020251793457502</v>
       </c>
       <c r="D25">
-        <v>1.0124280064653</v>
+        <v>1.025862600466656</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9661351041275364</v>
+        <v>1.017804916300633</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040724745446871</v>
+        <v>1.031019028657197</v>
       </c>
       <c r="J25">
-        <v>1.01792323087705</v>
+        <v>1.025939857315227</v>
       </c>
       <c r="K25">
-        <v>1.024836409138043</v>
+        <v>1.028946691203637</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.9792829087598069</v>
+        <v>1.020915094107655</v>
       </c>
       <c r="N25">
-        <v>1.010051994651445</v>
+        <v>1.012740289871162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.021312911921985</v>
+        <v>0.9985393043569294</v>
       </c>
       <c r="D2">
-        <v>1.026629670511691</v>
+        <v>1.016215938207459</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.019741662386892</v>
+        <v>0.9753168043595698</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031243529606694</v>
+        <v>1.042338088569929</v>
       </c>
       <c r="J2">
-        <v>1.026505085214512</v>
+        <v>1.02076379252873</v>
       </c>
       <c r="K2">
-        <v>1.029451757862291</v>
+        <v>1.027453888912073</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.0225840102479</v>
+        <v>0.9871310734434483</v>
       </c>
       <c r="N2">
-        <v>1.012926493720188</v>
+        <v>1.010987837969622</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.022083332400925</v>
+        <v>1.002323502549661</v>
       </c>
       <c r="D3">
-        <v>1.027186393188569</v>
+        <v>1.018886077252465</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.0211479559186</v>
+        <v>0.9817510887282064</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031403391665112</v>
+        <v>1.043448045412666</v>
       </c>
       <c r="J3">
-        <v>1.026914003210218</v>
+        <v>1.02275102633044</v>
       </c>
       <c r="K3">
-        <v>1.029816714781862</v>
+        <v>1.029282878146942</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.023794745398038</v>
+        <v>0.9926229185266202</v>
       </c>
       <c r="N3">
-        <v>1.013061193460122</v>
+        <v>1.011642622753034</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022581819946383</v>
+        <v>1.004720065765682</v>
       </c>
       <c r="D4">
-        <v>1.027546512791065</v>
+        <v>1.020578524499017</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.022057966253385</v>
+        <v>0.9858151249183057</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031505374949012</v>
+        <v>1.044138876037586</v>
       </c>
       <c r="J4">
-        <v>1.027177909381216</v>
+        <v>1.024003797605844</v>
       </c>
       <c r="K4">
-        <v>1.030052045162372</v>
+        <v>1.030434770437536</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.024577707883929</v>
+        <v>0.9960878184088231</v>
       </c>
       <c r="N4">
-        <v>1.013148120458946</v>
+        <v>1.012055434692674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022791376909254</v>
+        <v>1.005715535864897</v>
       </c>
       <c r="D5">
-        <v>1.027697877796048</v>
+        <v>1.021281827372031</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.022440548350716</v>
+        <v>0.9875009768971214</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031547899163903</v>
+        <v>1.044422891190423</v>
       </c>
       <c r="J5">
-        <v>1.027288689525006</v>
+        <v>1.024522776444196</v>
       </c>
       <c r="K5">
-        <v>1.030150780762836</v>
+        <v>1.030911673461632</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.024906756772645</v>
+        <v>0.9975241784907992</v>
       </c>
       <c r="N5">
-        <v>1.013184608651216</v>
+        <v>1.012226454239697</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022826561994799</v>
+        <v>1.005881985123778</v>
       </c>
       <c r="D6">
-        <v>1.027723290894079</v>
+        <v>1.021399441111181</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.022504786465606</v>
+        <v>0.9877827407917195</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031555018654708</v>
+        <v>1.044470206783149</v>
       </c>
       <c r="J6">
-        <v>1.027307280247423</v>
+        <v>1.024609471226101</v>
       </c>
       <c r="K6">
-        <v>1.03016734731471</v>
+        <v>1.030991322282695</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.024961999238732</v>
+        <v>0.9977641866488457</v>
       </c>
       <c r="N6">
-        <v>1.013190731894359</v>
+        <v>1.012255023183209</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022584620086298</v>
+        <v>1.004733414075285</v>
       </c>
       <c r="D7">
-        <v>1.027548535454251</v>
+        <v>1.020587953970778</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.022063078276159</v>
+        <v>0.9858377389985804</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03150594453377</v>
+        <v>1.044142696061376</v>
       </c>
       <c r="J7">
-        <v>1.027179390283932</v>
+        <v>1.024010762122067</v>
       </c>
       <c r="K7">
-        <v>1.030053365248415</v>
+        <v>1.030441171460649</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.024582105074578</v>
+        <v>0.9961070896144912</v>
       </c>
       <c r="N7">
-        <v>1.01314860823593</v>
+        <v>1.012057729692543</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021573283935093</v>
+        <v>0.9998292325391462</v>
       </c>
       <c r="D8">
-        <v>1.026817841082883</v>
+        <v>1.017125791656616</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.020216918563294</v>
+        <v>0.9775125771335584</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03129785737616</v>
+        <v>1.042718964896519</v>
       </c>
       <c r="J8">
-        <v>1.026643423733058</v>
+        <v>1.021442389557199</v>
       </c>
       <c r="K8">
-        <v>1.029575266363517</v>
+        <v>1.028078674436346</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.022993281506576</v>
+        <v>0.989006024000296</v>
       </c>
       <c r="N8">
-        <v>1.012972064198863</v>
+        <v>1.011211425988072</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.019791023603591</v>
+        <v>0.9907685762523176</v>
       </c>
       <c r="D9">
-        <v>1.025529420051517</v>
+        <v>1.010742509858625</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.01696394902566</v>
+        <v>0.9620268515021481</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030920034080462</v>
+        <v>1.039993378715553</v>
       </c>
       <c r="J9">
-        <v>1.02569371322506</v>
+        <v>1.016651584952927</v>
       </c>
       <c r="K9">
-        <v>1.028726536842608</v>
+        <v>1.023663668950325</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.020189901497378</v>
+        <v>0.9757676039949702</v>
       </c>
       <c r="N9">
-        <v>1.01265919721807</v>
+        <v>1.009633086825449</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018602800169582</v>
+        <v>0.9844163393647789</v>
       </c>
       <c r="D10">
-        <v>1.024669976073618</v>
+        <v>1.006278895887486</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.014795239047474</v>
+        <v>0.9510709013198796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030660684196326</v>
+        <v>1.038019898996169</v>
       </c>
       <c r="J10">
-        <v>1.025057061579061</v>
+        <v>1.013262186740518</v>
       </c>
       <c r="K10">
-        <v>1.028156549983053</v>
+        <v>1.020535700862065</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.018318350812416</v>
+        <v>0.9663835929978728</v>
       </c>
       <c r="N10">
-        <v>1.012449437880351</v>
+        <v>1.008516691738515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01808828564498</v>
+        <v>0.9815843895836301</v>
       </c>
       <c r="D11">
-        <v>1.02429772419909</v>
+        <v>1.004292281553456</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.013856103943291</v>
+        <v>0.9461557985289388</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030546617035249</v>
+        <v>1.037125616987724</v>
       </c>
       <c r="J11">
-        <v>1.024780557715747</v>
+        <v>1.011743867027785</v>
       </c>
       <c r="K11">
-        <v>1.027908759167091</v>
+        <v>1.019133703165944</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.01750728777252</v>
+        <v>0.9621699608615012</v>
       </c>
       <c r="N11">
-        <v>1.012358331809703</v>
+        <v>1.008016662318157</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01789717198772</v>
+        <v>0.9805195593284238</v>
       </c>
       <c r="D12">
-        <v>1.024159438356607</v>
+        <v>1.00354585891106</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.013507252996575</v>
+        <v>0.9443023880529153</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030503982341987</v>
+        <v>1.036787220334755</v>
       </c>
       <c r="J12">
-        <v>1.024677727689015</v>
+        <v>1.011171876873121</v>
       </c>
       <c r="K12">
-        <v>1.027816571592156</v>
+        <v>1.018605439705501</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.017205919025334</v>
+        <v>0.9605805529045993</v>
       </c>
       <c r="N12">
-        <v>1.01232444922087</v>
+        <v>1.007828300435878</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017938166505007</v>
+        <v>0.9807485652997525</v>
       </c>
       <c r="D13">
-        <v>1.02418910179615</v>
+        <v>1.003706361070226</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.013582083421655</v>
+        <v>0.9447012400290828</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030513139617143</v>
+        <v>1.036860093277645</v>
       </c>
       <c r="J13">
-        <v>1.0246997906912</v>
+        <v>1.011294940425328</v>
       </c>
       <c r="K13">
-        <v>1.027836352783686</v>
+        <v>1.018719099358305</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.017270568395474</v>
+        <v>0.9609226140522817</v>
       </c>
       <c r="N13">
-        <v>1.012331719037316</v>
+        <v>1.007868825887035</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01807248812673</v>
+        <v>0.9814966380958965</v>
       </c>
       <c r="D14">
-        <v>1.024286293746007</v>
+        <v>1.004230758069185</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.013827268130811</v>
+        <v>0.9460031729625201</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030543098243302</v>
+        <v>1.037097773422416</v>
       </c>
       <c r="J14">
-        <v>1.024772060284367</v>
+        <v>1.011696752177502</v>
       </c>
       <c r="K14">
-        <v>1.027901141909292</v>
+        <v>1.019090191869984</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.017482378674776</v>
+        <v>0.9620390855818102</v>
       </c>
       <c r="N14">
-        <v>1.012355531914842</v>
+        <v>1.008001146690556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018155248128849</v>
+        <v>0.9819558170805954</v>
       </c>
       <c r="D15">
-        <v>1.024346174970947</v>
+        <v>1.004552716241529</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.013978332502378</v>
+        <v>0.9468015995204442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030561521628908</v>
+        <v>1.03724338394099</v>
       </c>
       <c r="J15">
-        <v>1.024816571523923</v>
+        <v>1.011943246456551</v>
       </c>
       <c r="K15">
-        <v>1.027941041162832</v>
+        <v>1.019317829447999</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.017612868122951</v>
+        <v>0.9627237098690836</v>
       </c>
       <c r="N15">
-        <v>1.012370198288797</v>
+        <v>1.0080823214568</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018636946750636</v>
+        <v>0.9846025141109023</v>
       </c>
       <c r="D16">
-        <v>1.024694679049203</v>
+        <v>1.006409571788479</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.014857564554462</v>
+        <v>0.9513933280731039</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03066821726418</v>
+        <v>1.038078391312661</v>
       </c>
       <c r="J16">
-        <v>1.025075394791108</v>
+        <v>1.013361851045509</v>
       </c>
       <c r="K16">
-        <v>1.028172974390612</v>
+        <v>1.020627715227213</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.018372164015686</v>
+        <v>0.9666599303249854</v>
       </c>
       <c r="N16">
-        <v>1.012455478428195</v>
+        <v>1.008549515869039</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018939102573745</v>
+        <v>0.9862404569111937</v>
       </c>
       <c r="D17">
-        <v>1.024913258627048</v>
+        <v>1.007559630015173</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.015409062248061</v>
+        <v>0.9542264282202345</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030734671833354</v>
+        <v>1.038591357944165</v>
       </c>
       <c r="J17">
-        <v>1.025237526022134</v>
+        <v>1.01423785964945</v>
       </c>
       <c r="K17">
-        <v>1.028318197303041</v>
+        <v>1.021436397249731</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.018848268785445</v>
+        <v>0.9690876335108064</v>
       </c>
       <c r="N17">
-        <v>1.012508897854551</v>
+        <v>1.008838034965718</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019115344324647</v>
+        <v>0.9871880378093087</v>
       </c>
       <c r="D18">
-        <v>1.025040742000123</v>
+        <v>1.008225274634654</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.015730735093065</v>
+        <v>0.9558625650934621</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030773263147972</v>
+        <v>1.038886745039926</v>
       </c>
       <c r="J18">
-        <v>1.025332014362137</v>
+        <v>1.01474395902286</v>
       </c>
       <c r="K18">
-        <v>1.028402808509501</v>
+        <v>1.021903523641429</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.019125908290594</v>
+        <v>0.9704892938678226</v>
       </c>
       <c r="N18">
-        <v>1.012540029582198</v>
+        <v>1.009004728845261</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019175438074999</v>
+        <v>0.9875098348723519</v>
       </c>
       <c r="D19">
-        <v>1.025084208737369</v>
+        <v>1.008451378298089</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.015840416249379</v>
+        <v>0.9564177280585262</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030786392855287</v>
+        <v>1.03898682405601</v>
       </c>
       <c r="J19">
-        <v>1.025364218850494</v>
+        <v>1.014915712899376</v>
       </c>
       <c r="K19">
-        <v>1.028431642635472</v>
+        <v>1.022062037734881</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.019220565371273</v>
+        <v>0.9709648339116362</v>
       </c>
       <c r="N19">
-        <v>1.012550640125732</v>
+        <v>1.009061300510681</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018906684172398</v>
+        <v>0.9860655331062985</v>
       </c>
       <c r="D20">
-        <v>1.024889808173989</v>
+        <v>1.007436776783655</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.015349892457787</v>
+        <v>0.9539241697568801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030727559520905</v>
+        <v>1.038536718083834</v>
       </c>
       <c r="J20">
-        <v>1.025220139153579</v>
+        <v>1.014144377881335</v>
       </c>
       <c r="K20">
-        <v>1.02830262606639</v>
+        <v>1.021350107866941</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.018797193928944</v>
+        <v>0.968828662827906</v>
       </c>
       <c r="N20">
-        <v>1.01250316923892</v>
+        <v>1.008807245428963</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018032933751803</v>
+        <v>0.981276711728244</v>
       </c>
       <c r="D21">
-        <v>1.024257673541962</v>
+        <v>1.004076574540538</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.013755067772909</v>
+        <v>0.9456205686677083</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030534283488703</v>
+        <v>1.037027956361282</v>
       </c>
       <c r="J21">
-        <v>1.024750782114917</v>
+        <v>1.01157865340051</v>
       </c>
       <c r="K21">
-        <v>1.027882067180562</v>
+        <v>1.01898112437164</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.017420008719095</v>
+        <v>0.961710997214553</v>
       </c>
       <c r="N21">
-        <v>1.012348520766797</v>
+        <v>1.007962255188732</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017483572281225</v>
+        <v>0.9781906660562412</v>
       </c>
       <c r="D22">
-        <v>1.023860139638181</v>
+        <v>1.00191443879211</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.012752253191733</v>
+        <v>0.9402382165159557</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030411229751045</v>
+        <v>1.036043209008589</v>
       </c>
       <c r="J22">
-        <v>1.024454960460597</v>
+        <v>1.009918861108566</v>
       </c>
       <c r="K22">
-        <v>1.027616794728863</v>
+        <v>1.017448065437886</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.016553515408316</v>
+        <v>0.9570944060414635</v>
       </c>
       <c r="N22">
-        <v>1.012251045732159</v>
+        <v>1.007415693823647</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017774798903499</v>
+        <v>0.979834003595768</v>
       </c>
       <c r="D23">
-        <v>1.024070887631465</v>
+        <v>1.003065462906342</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.013283873548875</v>
+        <v>0.9431075450209256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030476608085978</v>
+        <v>1.036568755458776</v>
       </c>
       <c r="J23">
-        <v>1.024611849052743</v>
+        <v>1.010803311519924</v>
       </c>
       <c r="K23">
-        <v>1.027757501078394</v>
+        <v>1.018265026261941</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.017012918095746</v>
+        <v>0.9595557676572338</v>
       </c>
       <c r="N23">
-        <v>1.012302741920595</v>
+        <v>1.007706931861879</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018921332654507</v>
+        <v>0.9861445977087919</v>
       </c>
       <c r="D24">
-        <v>1.024900404456538</v>
+        <v>1.0074923048017</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.015376628757977</v>
+        <v>0.9540607977619031</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030730773795617</v>
+        <v>1.038561419264274</v>
       </c>
       <c r="J24">
-        <v>1.025227995778448</v>
+        <v>1.014186633262837</v>
       </c>
       <c r="K24">
-        <v>1.028309662331108</v>
+        <v>1.021389112403574</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.018820272656111</v>
+        <v>0.9689457248385746</v>
       </c>
       <c r="N24">
-        <v>1.012505757836917</v>
+        <v>1.008821162812963</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020251793457502</v>
+        <v>0.9931635831503459</v>
       </c>
       <c r="D25">
-        <v>1.025862600466656</v>
+        <v>1.0124280064653</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.017804916300633</v>
+        <v>0.9661351041275369</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031019028657197</v>
+        <v>1.040724745446871</v>
       </c>
       <c r="J25">
-        <v>1.025939857315227</v>
+        <v>1.017923230877051</v>
       </c>
       <c r="K25">
-        <v>1.028946691203637</v>
+        <v>1.024836409138043</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.020915094107655</v>
+        <v>0.9792829087598075</v>
       </c>
       <c r="N25">
-        <v>1.012740289871162</v>
+        <v>1.010051994651445</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9985393043569294</v>
+        <v>1.004823066953565</v>
       </c>
       <c r="D2">
-        <v>1.016215938207459</v>
+        <v>1.023002094834068</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>0.9753168043595698</v>
+        <v>1.018711633807902</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042338088569929</v>
+        <v>1.043497090927386</v>
       </c>
       <c r="J2">
-        <v>1.02076379252873</v>
+        <v>1.026860471705755</v>
       </c>
       <c r="K2">
-        <v>1.027453888912073</v>
+        <v>1.034150011679005</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>0.9871310734434483</v>
+        <v>1.029916298370423</v>
       </c>
       <c r="N2">
-        <v>1.010987837969622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012929844256095</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.032249085951092</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035217251782977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002323502549661</v>
+        <v>1.007900655736085</v>
       </c>
       <c r="D3">
-        <v>1.018886077252465</v>
+        <v>1.024953594653476</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>0.9817510887282064</v>
+        <v>1.021448169001427</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043448045412666</v>
+        <v>1.044056781691276</v>
       </c>
       <c r="J3">
-        <v>1.02275102633044</v>
+        <v>1.028178233803864</v>
       </c>
       <c r="K3">
-        <v>1.029282878146942</v>
+        <v>1.035276842901728</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>0.9926229185266202</v>
+        <v>1.031813778880729</v>
       </c>
       <c r="N3">
-        <v>1.011642622753034</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013371320221305</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.03375083039538</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036011347279494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004720065765682</v>
+        <v>1.009858821243345</v>
       </c>
       <c r="D4">
-        <v>1.020578524499017</v>
+        <v>1.026199006393271</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>0.9858151249183057</v>
+        <v>1.023195315934499</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044138876037586</v>
+        <v>1.044404931306248</v>
       </c>
       <c r="J4">
-        <v>1.024003797605844</v>
+        <v>1.029013655803684</v>
       </c>
       <c r="K4">
-        <v>1.030434770437536</v>
+        <v>1.035991189878054</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>0.9960878184088231</v>
+        <v>1.033021627580687</v>
       </c>
       <c r="N4">
-        <v>1.012055434692674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013651250593102</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034706770070664</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036517355054835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005715535864897</v>
+        <v>1.010676791874276</v>
       </c>
       <c r="D5">
-        <v>1.021281827372031</v>
+        <v>1.026722250787268</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>0.9875009768971214</v>
+        <v>1.023925400926316</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044422891190423</v>
+        <v>1.044549815148845</v>
       </c>
       <c r="J5">
-        <v>1.024522776444196</v>
+        <v>1.02936327166653</v>
       </c>
       <c r="K5">
-        <v>1.030911673461632</v>
+        <v>1.036291722733</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>0.9975241784907992</v>
+        <v>1.033525811870564</v>
       </c>
       <c r="N5">
-        <v>1.012226454239697</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013768605019702</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.035105801260035</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036737060447622</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005881985123778</v>
+        <v>1.010816753681182</v>
       </c>
       <c r="D6">
-        <v>1.021399441111181</v>
+        <v>1.026814425461956</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>0.9877827407917195</v>
+        <v>1.024048993168156</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044470206783149</v>
+        <v>1.044576187304342</v>
       </c>
       <c r="J6">
-        <v>1.024609471226101</v>
+        <v>1.029424735174756</v>
       </c>
       <c r="K6">
-        <v>1.030991322282695</v>
+        <v>1.036346487321737</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>0.9977641866488457</v>
+        <v>1.03361150758737</v>
       </c>
       <c r="N6">
-        <v>1.012255023183209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01378947426239</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.035173624183495</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036784566800143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004733414075285</v>
+        <v>1.009878025025434</v>
       </c>
       <c r="D7">
-        <v>1.020587953970778</v>
+        <v>1.026218218345409</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>0.9858377389985804</v>
+        <v>1.023208656060333</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044142696061376</v>
+        <v>1.044412883133065</v>
       </c>
       <c r="J7">
-        <v>1.024010762122067</v>
+        <v>1.029026381688762</v>
       </c>
       <c r="K7">
-        <v>1.030441171460649</v>
+        <v>1.036007285528365</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>0.9961070896144912</v>
+        <v>1.03303190536434</v>
       </c>
       <c r="N7">
-        <v>1.012057729692543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013656166999181</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034714904313346</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036548935467409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9998292325391462</v>
+        <v>1.005880389296026</v>
       </c>
       <c r="D8">
-        <v>1.017125791656616</v>
+        <v>1.023680292572234</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>0.9775125771335584</v>
+        <v>1.019645856593571</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042718964896519</v>
+        <v>1.043696580785989</v>
       </c>
       <c r="J8">
-        <v>1.021442389557199</v>
+        <v>1.027319378293137</v>
       </c>
       <c r="K8">
-        <v>1.028078674436346</v>
+        <v>1.034548775469368</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>0.989006024000296</v>
+        <v>1.030566128821046</v>
       </c>
       <c r="N8">
-        <v>1.011211425988072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013084417279691</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.032763388970755</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035522219533263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9907685762523176</v>
+        <v>0.9985593347434655</v>
       </c>
       <c r="D9">
-        <v>1.010742509858625</v>
+        <v>1.019052331996092</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9620268515021481</v>
+        <v>1.013175090161414</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039993378715553</v>
+        <v>1.042315909912232</v>
       </c>
       <c r="J9">
-        <v>1.016651584952927</v>
+        <v>1.024163069386848</v>
       </c>
       <c r="K9">
-        <v>1.023663668950325</v>
+        <v>1.031843680276524</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>0.9757676039949702</v>
+        <v>1.026057967028199</v>
       </c>
       <c r="N9">
-        <v>1.009633086825449</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012026551588104</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.029195433208152</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033606339663601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9844163393647789</v>
+        <v>0.9935704443481872</v>
       </c>
       <c r="D10">
-        <v>1.006278895887486</v>
+        <v>1.015931731258355</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9510709013198796</v>
+        <v>1.00903910738571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038019898996169</v>
+        <v>1.041358346718355</v>
       </c>
       <c r="J10">
-        <v>1.013262186740518</v>
+        <v>1.022041501161154</v>
       </c>
       <c r="K10">
-        <v>1.020535700862065</v>
+        <v>1.030019170480176</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9663835929978728</v>
+        <v>1.023247053581229</v>
       </c>
       <c r="N10">
-        <v>1.008516691738515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011319169185989</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027022907939575</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032333173931453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9815843895836301</v>
+        <v>0.9920020588586</v>
       </c>
       <c r="D11">
-        <v>1.004292281553456</v>
+        <v>1.01503241158873</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9461557985289388</v>
+        <v>1.009656714572614</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037125616987724</v>
+        <v>1.041223336684147</v>
       </c>
       <c r="J11">
-        <v>1.011743867027785</v>
+        <v>1.02171138867099</v>
       </c>
       <c r="K11">
-        <v>1.019133703165944</v>
+        <v>1.029676299562069</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9621699608615012</v>
+        <v>1.024398788560931</v>
       </c>
       <c r="N11">
-        <v>1.008016662318157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011236855284316</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.028375742529628</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032123724489653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9805195593284238</v>
+        <v>0.9916226283876162</v>
       </c>
       <c r="D12">
-        <v>1.00354585891106</v>
+        <v>1.014846373529405</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9443023880529153</v>
+        <v>1.010695814444762</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036787220334755</v>
+        <v>1.041267139818124</v>
       </c>
       <c r="J12">
-        <v>1.011171876873121</v>
+        <v>1.021785814551477</v>
       </c>
       <c r="K12">
-        <v>1.018605439705501</v>
+        <v>1.029694562676352</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9605805529045993</v>
+        <v>1.025620928842298</v>
       </c>
       <c r="N12">
-        <v>1.007828300435878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011283185043218</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029671944305063</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032136637193208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9807485652997525</v>
+        <v>0.9921393855398447</v>
       </c>
       <c r="D13">
-        <v>1.003706361070226</v>
+        <v>1.015207813927194</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>0.9447012400290828</v>
+        <v>1.012154641168197</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036860093277645</v>
+        <v>1.041461076443464</v>
       </c>
       <c r="J13">
-        <v>1.011294940425328</v>
+        <v>1.022186333969158</v>
       </c>
       <c r="K13">
-        <v>1.018719099358305</v>
+        <v>1.030006267175577</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>0.9609226140522817</v>
+        <v>1.027009359470813</v>
       </c>
       <c r="N13">
-        <v>1.007868825887035</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011435847402806</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031048555838964</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.03235452223326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9814966380958965</v>
+        <v>0.9929002694490084</v>
       </c>
       <c r="D14">
-        <v>1.004230758069185</v>
+        <v>1.015705359382249</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>0.9460031729625201</v>
+        <v>1.01334103968227</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037097773422416</v>
+        <v>1.041661953626603</v>
       </c>
       <c r="J14">
-        <v>1.011696752177502</v>
+        <v>1.022607498471863</v>
       </c>
       <c r="K14">
-        <v>1.019090191869984</v>
+        <v>1.030353640026926</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>0.9620390855818102</v>
+        <v>1.028032318913963</v>
       </c>
       <c r="N14">
-        <v>1.008001146690556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011588623850088</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032031580890923</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032601557592995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9819558170805954</v>
+        <v>0.9932910410274786</v>
       </c>
       <c r="D15">
-        <v>1.004552716241529</v>
+        <v>1.015955492620075</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9468015995204442</v>
+        <v>1.013769403361008</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03724338394099</v>
+        <v>1.041749517081776</v>
       </c>
       <c r="J15">
-        <v>1.011943246456551</v>
+        <v>1.022792812543962</v>
       </c>
       <c r="K15">
-        <v>1.019317829447999</v>
+        <v>1.030512364423804</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782941</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>0.9627237098690836</v>
+        <v>1.028365726276257</v>
       </c>
       <c r="N15">
-        <v>1.0080823214568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011653211783851</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032332844451826</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.032719673697144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9846025141109023</v>
+        <v>0.9952887810942056</v>
       </c>
       <c r="D16">
-        <v>1.006409571788479</v>
+        <v>1.017197122034609</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9513933280731039</v>
+        <v>1.015283309471098</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038078391312661</v>
+        <v>1.042125329190122</v>
       </c>
       <c r="J16">
-        <v>1.013361851045509</v>
+        <v>1.023613185857218</v>
       </c>
       <c r="K16">
-        <v>1.020627715227213</v>
+        <v>1.031226880397222</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175717</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9666599303249854</v>
+        <v>1.02934611118709</v>
       </c>
       <c r="N16">
-        <v>1.008549515869039</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011923523428687</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033068802801035</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.033228046845842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9862404569111937</v>
+        <v>0.996430887990489</v>
       </c>
       <c r="D17">
-        <v>1.007559630015173</v>
+        <v>1.017895636200977</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9542264282202345</v>
+        <v>1.015827896847948</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038591357944165</v>
+        <v>1.042309232969966</v>
       </c>
       <c r="J17">
-        <v>1.01423785964945</v>
+        <v>1.024026916225098</v>
       </c>
       <c r="K17">
-        <v>1.021436397249731</v>
+        <v>1.031597000759883</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068056</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9690876335108064</v>
+        <v>1.029563982723363</v>
       </c>
       <c r="N17">
-        <v>1.008838034965718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012052446151321</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033111194395683</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.033492338163087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9871880378093087</v>
+        <v>0.9969095774923128</v>
       </c>
       <c r="D18">
-        <v>1.008225274634654</v>
+        <v>1.018160625346738</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9558625650934621</v>
+        <v>1.015423661358497</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038886745039926</v>
+        <v>1.042327154327069</v>
       </c>
       <c r="J18">
-        <v>1.01474395902286</v>
+        <v>1.024089847824811</v>
       </c>
       <c r="K18">
-        <v>1.021903523641429</v>
+        <v>1.031673076673431</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9704892938678226</v>
+        <v>1.028981369307178</v>
       </c>
       <c r="N18">
-        <v>1.009004728845261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012057409263025</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032411200395777</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.033534447677339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9875098348723519</v>
+        <v>0.9967692810851886</v>
       </c>
       <c r="D19">
-        <v>1.008451378298089</v>
+        <v>1.018030159980603</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>0.9564177280585262</v>
+        <v>1.014058648221482</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03898682405601</v>
+        <v>1.042192609322991</v>
       </c>
       <c r="J19">
-        <v>1.014915712899376</v>
+        <v>1.023819554544614</v>
       </c>
       <c r="K19">
-        <v>1.022062037734881</v>
+        <v>1.031481846777991</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>0.9709648339116362</v>
+        <v>1.027575778387701</v>
       </c>
       <c r="N19">
-        <v>1.009061300510681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011946941002721</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.030971300934891</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.033405660798726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9860655331062985</v>
+        <v>0.994884770046227</v>
       </c>
       <c r="D20">
-        <v>1.007436776783655</v>
+        <v>1.016769473495285</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>0.9539241697568801</v>
+        <v>1.010129060256967</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038536718083834</v>
+        <v>1.041625217196364</v>
       </c>
       <c r="J20">
-        <v>1.014144377881335</v>
+        <v>1.022614309318581</v>
       </c>
       <c r="K20">
-        <v>1.021350107866941</v>
+        <v>1.030523724658617</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>0.968828662827906</v>
+        <v>1.023996110338155</v>
       </c>
       <c r="N20">
-        <v>1.008807245428963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011512170331793</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.027605019024415</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032732161918219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.981276711728244</v>
+        <v>0.9910203440555009</v>
       </c>
       <c r="D21">
-        <v>1.004076574540538</v>
+        <v>1.014342981608849</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9456205686677083</v>
+        <v>1.006561879602773</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037027956361282</v>
+        <v>1.040834477180582</v>
       </c>
       <c r="J21">
-        <v>1.01157865340051</v>
+        <v>1.020898358439115</v>
       </c>
       <c r="K21">
-        <v>1.01898112437164</v>
+        <v>1.029057623181259</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>0.961710997214553</v>
+        <v>1.021419992513225</v>
       </c>
       <c r="N21">
-        <v>1.007962255188732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010934839017257</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.025524718783211</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031698798405253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9781906660562412</v>
+        <v>0.9885776215950861</v>
       </c>
       <c r="D22">
-        <v>1.00191443879211</v>
+        <v>1.012812205861427</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>0.9402382165159557</v>
+        <v>1.004438306679894</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036043209008589</v>
+        <v>1.040332996578819</v>
       </c>
       <c r="J22">
-        <v>1.009918861108566</v>
+        <v>1.019827471807755</v>
       </c>
       <c r="K22">
-        <v>1.017448065437886</v>
+        <v>1.028134052749336</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>0.9570944060414635</v>
+        <v>1.019922349629631</v>
       </c>
       <c r="N22">
-        <v>1.007415693823647</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010575352316702</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024339408509212</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031032223012687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.979834003595768</v>
+        <v>0.9898693073898033</v>
       </c>
       <c r="D23">
-        <v>1.003065462906342</v>
+        <v>1.013615129763626</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>0.9431075450209256</v>
+        <v>1.005563790946189</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036568755458776</v>
+        <v>1.040595102034417</v>
       </c>
       <c r="J23">
-        <v>1.010803311519924</v>
+        <v>1.020390087275068</v>
       </c>
       <c r="K23">
-        <v>1.018265026261941</v>
+        <v>1.028614928984572</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>0.9595557676572338</v>
+        <v>1.020715551445767</v>
       </c>
       <c r="N23">
-        <v>1.007706931861879</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010763513380734</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.024967188774691</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.031362551312055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9861445977087919</v>
+        <v>0.9948737121758775</v>
       </c>
       <c r="D24">
-        <v>1.0074923048017</v>
+        <v>1.01674618082165</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>0.9540607977619031</v>
+        <v>1.009934327701801</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038561419264274</v>
+        <v>1.04160041743258</v>
       </c>
       <c r="J24">
-        <v>1.014186633262837</v>
+        <v>1.02257053244302</v>
       </c>
       <c r="K24">
-        <v>1.021389112403574</v>
+        <v>1.030485461282501</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>0.9689457248385746</v>
+        <v>1.023789202874507</v>
       </c>
       <c r="N24">
-        <v>1.008821162812963</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011494019895008</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.027399827408417</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.032677586644627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9931635831503459</v>
+        <v>1.00049754979576</v>
       </c>
       <c r="D25">
-        <v>1.0124280064653</v>
+        <v>1.020284399353421</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>0.9661351041275369</v>
+        <v>1.014876671508502</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040724745446871</v>
+        <v>1.042695355211802</v>
       </c>
       <c r="J25">
-        <v>1.017923230877051</v>
+        <v>1.025008180999753</v>
       </c>
       <c r="K25">
-        <v>1.024836409138043</v>
+        <v>1.032575780239295</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>0.9792829087598075</v>
+        <v>1.027248353820897</v>
       </c>
       <c r="N25">
-        <v>1.010051994651445</v>
+        <v>1.012310862291741</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03013755898608</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034152689592652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_36/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004823066953565</v>
+        <v>1.004769930796679</v>
       </c>
       <c r="D2">
-        <v>1.023002094834068</v>
+        <v>1.022592853715599</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.018711633807902</v>
+        <v>1.018688615199671</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043497090927386</v>
+        <v>1.043356826434057</v>
       </c>
       <c r="J2">
-        <v>1.026860471705755</v>
+        <v>1.026808904073994</v>
       </c>
       <c r="K2">
-        <v>1.034150011679005</v>
+        <v>1.033746157621274</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.029916298370423</v>
+        <v>1.029893585835614</v>
       </c>
       <c r="N2">
-        <v>1.012929844256095</v>
+        <v>1.014361163118039</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.032249085951092</v>
+        <v>1.03223111029349</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035217251782977</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.034940502640731</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021096497493117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007900655736085</v>
+        <v>1.007756172403544</v>
       </c>
       <c r="D3">
-        <v>1.024953594653476</v>
+        <v>1.024419823295897</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.021448169001427</v>
+        <v>1.021385663885058</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044056781691276</v>
+        <v>1.043856045843959</v>
       </c>
       <c r="J3">
-        <v>1.028178233803864</v>
+        <v>1.02803760656053</v>
       </c>
       <c r="K3">
-        <v>1.035276842901728</v>
+        <v>1.034749498725431</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.031813778880729</v>
+        <v>1.031752032390839</v>
       </c>
       <c r="N3">
-        <v>1.013371320221305</v>
+        <v>1.01468829172749</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03375083039538</v>
+        <v>1.033701961723648</v>
       </c>
       <c r="Q3">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R3">
-        <v>1.036011347279494</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035647004949781</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021265517923017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009858821243345</v>
+        <v>1.009656798773097</v>
       </c>
       <c r="D4">
-        <v>1.026199006393271</v>
+        <v>1.025586398650073</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.023195315934499</v>
+        <v>1.023107994402138</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044404931306248</v>
+        <v>1.044165877531784</v>
       </c>
       <c r="J4">
-        <v>1.029013655803684</v>
+        <v>1.028816667330434</v>
       </c>
       <c r="K4">
-        <v>1.035991189878054</v>
+        <v>1.035385522624893</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.033021627580687</v>
+        <v>1.03293530189987</v>
       </c>
       <c r="N4">
-        <v>1.013651250593102</v>
+        <v>1.01489577016288</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034706770070664</v>
+        <v>1.034638448523994</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036517355054835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03609771455849</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021370208438509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010676791874276</v>
+        <v>1.010450866135641</v>
       </c>
       <c r="D5">
-        <v>1.026722250787268</v>
+        <v>1.02607684208258</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.023925400926316</v>
+        <v>1.023827782737266</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044549815148845</v>
+        <v>1.044294801753743</v>
       </c>
       <c r="J5">
-        <v>1.02936327166653</v>
+        <v>1.029142810501684</v>
       </c>
       <c r="K5">
-        <v>1.036291722733</v>
+        <v>1.035653435195257</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.033525811870564</v>
+        <v>1.033429277297029</v>
       </c>
       <c r="N5">
-        <v>1.013768605019702</v>
+        <v>1.014982798010703</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035105801260035</v>
+        <v>1.035029400035981</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036737060447622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036295065835786</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021414176820398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010816753681182</v>
+        <v>1.010586743136608</v>
       </c>
       <c r="D6">
-        <v>1.026814425461956</v>
+        <v>1.026163454124835</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.024048993168156</v>
+        <v>1.02394961601221</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044576187304342</v>
+        <v>1.044318456020682</v>
       </c>
       <c r="J6">
-        <v>1.029424735174756</v>
+        <v>1.029200259935369</v>
       </c>
       <c r="K6">
-        <v>1.036346487321737</v>
+        <v>1.035702666244432</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.03361150758737</v>
+        <v>1.033513228522452</v>
       </c>
       <c r="N6">
-        <v>1.01378947426239</v>
+        <v>1.014998316905081</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.035173624183495</v>
+        <v>1.035095842308355</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036784566800143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.036339528155994</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021422789215556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009878025025434</v>
+        <v>1.009682229699331</v>
       </c>
       <c r="D7">
-        <v>1.026218218345409</v>
+        <v>1.025609781215371</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.023208656060333</v>
+        <v>1.023124026541532</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044412883133065</v>
+        <v>1.044176645596517</v>
       </c>
       <c r="J7">
-        <v>1.029026381688762</v>
+        <v>1.028835463119668</v>
       </c>
       <c r="K7">
-        <v>1.036007285528365</v>
+        <v>1.035405738984097</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.03303190536434</v>
+        <v>1.032948240639652</v>
       </c>
       <c r="N7">
-        <v>1.013656166999181</v>
+        <v>1.014927047592852</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034714904313346</v>
+        <v>1.034648688753111</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036548935467409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036134207026117</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021375651187526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005880389296026</v>
+        <v>1.005816636161285</v>
       </c>
       <c r="D8">
-        <v>1.023680292572234</v>
+        <v>1.02324319020509</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.019645856593571</v>
+        <v>1.019618251491342</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043696580785989</v>
+        <v>1.043545275738461</v>
       </c>
       <c r="J8">
-        <v>1.027319378293137</v>
+        <v>1.027257445192213</v>
       </c>
       <c r="K8">
-        <v>1.034548775469368</v>
+        <v>1.034117259454864</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.030566128821046</v>
+        <v>1.030538879846457</v>
       </c>
       <c r="N8">
-        <v>1.013084417279691</v>
+        <v>1.014559485666331</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.032763388970755</v>
+        <v>1.032741822999248</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035522219533263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035228177937543</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021163143971467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9985593347434655</v>
+        <v>0.9987195984968382</v>
       </c>
       <c r="D9">
-        <v>1.019052331996092</v>
+        <v>1.018915958005402</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.013175090161414</v>
+        <v>1.013244708888734</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042315909912232</v>
+        <v>1.042310808666845</v>
       </c>
       <c r="J9">
-        <v>1.024163069386848</v>
+        <v>1.024317652202636</v>
       </c>
       <c r="K9">
-        <v>1.031843680276524</v>
+        <v>1.031709414808427</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.026057967028199</v>
+        <v>1.026126493606476</v>
       </c>
       <c r="N9">
-        <v>1.012026551588104</v>
+        <v>1.013785972352486</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.029195433208152</v>
+        <v>1.029249668266589</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033606339663601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033522190699884</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0207423751833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9935704443481872</v>
+        <v>0.9939149847485382</v>
       </c>
       <c r="D10">
-        <v>1.015931731258355</v>
+        <v>1.016021459527743</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.00903910738571</v>
+        <v>1.009188959156888</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041358346718355</v>
+        <v>1.041466349401566</v>
       </c>
       <c r="J10">
-        <v>1.022041501161154</v>
+        <v>1.022372126374268</v>
       </c>
       <c r="K10">
-        <v>1.030019170480176</v>
+        <v>1.030107343938106</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.023247053581229</v>
+        <v>1.023394262728194</v>
       </c>
       <c r="N10">
-        <v>1.011319169185989</v>
+        <v>1.013387041773815</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027022907939575</v>
+        <v>1.027139408864286</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032333173931453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032407978352529</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02045818686254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9920020588586</v>
+        <v>0.9924356118525753</v>
       </c>
       <c r="D11">
-        <v>1.01503241158873</v>
+        <v>1.015206062924231</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.009656714572614</v>
+        <v>1.009843891434141</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041223336684147</v>
+        <v>1.041377262962209</v>
       </c>
       <c r="J11">
-        <v>1.02171138867099</v>
+        <v>1.022126499619368</v>
       </c>
       <c r="K11">
-        <v>1.029676299562069</v>
+        <v>1.029846801741609</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.024398788560931</v>
+        <v>1.024582523791601</v>
       </c>
       <c r="N11">
-        <v>1.011236855284316</v>
+        <v>1.013569271904629</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.028375742529628</v>
+        <v>1.028521075006042</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032123724489653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03225994907036</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020455719573654</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9916226283876162</v>
+        <v>0.9920790177991549</v>
       </c>
       <c r="D12">
-        <v>1.014846373529405</v>
+        <v>1.015036443099825</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.010695814444762</v>
+        <v>1.010891775500106</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041267139818124</v>
+        <v>1.04143052893738</v>
       </c>
       <c r="J12">
-        <v>1.021785814551477</v>
+        <v>1.022222432585713</v>
       </c>
       <c r="K12">
-        <v>1.029694562676352</v>
+        <v>1.029881129182945</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.025620928842298</v>
+        <v>1.025813239475465</v>
       </c>
       <c r="N12">
-        <v>1.011283185043218</v>
+        <v>1.013711044652707</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029671944305063</v>
+        <v>1.0298240073332</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032136637193208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032284219333139</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020491376767502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9921393855398447</v>
+        <v>0.9925598025774305</v>
       </c>
       <c r="D13">
-        <v>1.015207813927194</v>
+        <v>1.015356819357818</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.012154641168197</v>
+        <v>1.012334360867344</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041461076443464</v>
+        <v>1.041602390036469</v>
       </c>
       <c r="J13">
-        <v>1.022186333969158</v>
+        <v>1.022588630795444</v>
       </c>
       <c r="K13">
-        <v>1.030006267175577</v>
+        <v>1.030152537955628</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.027009359470813</v>
+        <v>1.027185754970196</v>
       </c>
       <c r="N13">
-        <v>1.011435847402806</v>
+        <v>1.013799050021696</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031048555838964</v>
+        <v>1.031187998999802</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.03235452223326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032473367372659</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020562292024807</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9929002694490084</v>
+        <v>0.993269954747608</v>
       </c>
       <c r="D14">
-        <v>1.015705359382249</v>
+        <v>1.0158007101475</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.01334103968227</v>
+        <v>1.01349867277814</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041661953626603</v>
+        <v>1.041774243399557</v>
       </c>
       <c r="J14">
-        <v>1.022607498471863</v>
+        <v>1.022961475073455</v>
       </c>
       <c r="K14">
-        <v>1.030353640026926</v>
+        <v>1.030447262161467</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.028032318913963</v>
+        <v>1.028187077099017</v>
       </c>
       <c r="N14">
-        <v>1.011588623850088</v>
+        <v>1.013835887013408</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032031580890923</v>
+        <v>1.03215390279662</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032601557592995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032683312248192</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020627276413978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9932910410274786</v>
+        <v>0.9936358448026296</v>
       </c>
       <c r="D15">
-        <v>1.015955492620075</v>
+        <v>1.016025193921912</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.013769403361008</v>
+        <v>1.013916348396403</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041749517081776</v>
+        <v>1.041847959550146</v>
       </c>
       <c r="J15">
-        <v>1.022792812543962</v>
+        <v>1.023123090334611</v>
       </c>
       <c r="K15">
-        <v>1.030512364423804</v>
+        <v>1.030580811495116</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.028365726276257</v>
+        <v>1.028510012542865</v>
       </c>
       <c r="N15">
-        <v>1.011653211783851</v>
+        <v>1.013839287214289</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032332844451826</v>
+        <v>1.032446886265848</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.032719673697144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032784197478194</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020653682776798</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9952887810942056</v>
+        <v>0.995518876005013</v>
       </c>
       <c r="D16">
-        <v>1.017197122034609</v>
+        <v>1.017148556482033</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.015283309471098</v>
+        <v>1.015381391680304</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042125329190122</v>
+        <v>1.042160688867383</v>
       </c>
       <c r="J16">
-        <v>1.023613185857218</v>
+        <v>1.023834061335545</v>
       </c>
       <c r="K16">
-        <v>1.031226880397222</v>
+        <v>1.031179151375578</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.02934611118709</v>
+        <v>1.029442496018432</v>
       </c>
       <c r="N16">
-        <v>1.011923523428687</v>
+        <v>1.013820167416859</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033068802801035</v>
+        <v>1.033144986183786</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.033228046845842</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033210730265897</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020755853068854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.996430887990489</v>
+        <v>0.9966065245004451</v>
       </c>
       <c r="D17">
-        <v>1.017895636200977</v>
+        <v>1.017789078869704</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.015827896847948</v>
+        <v>1.015902876981908</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042309232969966</v>
+        <v>1.04231431011785</v>
       </c>
       <c r="J17">
-        <v>1.024026916225098</v>
+        <v>1.024195736478206</v>
       </c>
       <c r="K17">
-        <v>1.031597000759883</v>
+        <v>1.031492228286873</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.029563982723363</v>
+        <v>1.029637700611734</v>
       </c>
       <c r="N17">
-        <v>1.012052446151321</v>
+        <v>1.013815932348925</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033111194395683</v>
+        <v>1.033169467483426</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.033492338163087</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.033434937973843</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020801732501274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9969095774923128</v>
+        <v>0.9970698007973614</v>
       </c>
       <c r="D18">
-        <v>1.018160625346738</v>
+        <v>1.018038208996574</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.015423661358497</v>
+        <v>1.015492283043956</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042327154327069</v>
+        <v>1.042324261500529</v>
       </c>
       <c r="J18">
-        <v>1.024089847824811</v>
+        <v>1.024243966418048</v>
       </c>
       <c r="K18">
-        <v>1.031673076673431</v>
+        <v>1.031552677830607</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.028981369307178</v>
+        <v>1.029048852471248</v>
       </c>
       <c r="N18">
-        <v>1.012057409263025</v>
+        <v>1.013776260244943</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032411200395777</v>
+        <v>1.032464556261063</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.033534447677339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.033464865331925</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020793606721268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9967692810851886</v>
+        <v>0.9969452081678011</v>
       </c>
       <c r="D19">
-        <v>1.018030159980603</v>
+        <v>1.017927829907972</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.014058648221482</v>
+        <v>1.014134380546978</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042192609322991</v>
+        <v>1.042200271611281</v>
       </c>
       <c r="J19">
-        <v>1.023819554544614</v>
+        <v>1.02398881531953</v>
       </c>
       <c r="K19">
-        <v>1.031481846777991</v>
+        <v>1.031381194679623</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.027575778387701</v>
+        <v>1.027650256609988</v>
       </c>
       <c r="N19">
-        <v>1.011946941002721</v>
+        <v>1.013682248513496</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.030971300934891</v>
+        <v>1.031030207048651</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.033405660798726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.033350665661139</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020736634760218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.994884770046227</v>
+        <v>0.9951614047588121</v>
       </c>
       <c r="D20">
-        <v>1.016769473495285</v>
+        <v>1.016786015330991</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.010129060256967</v>
+        <v>1.010249334633187</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041625217196364</v>
+        <v>1.04169444272256</v>
       </c>
       <c r="J20">
-        <v>1.022614309318581</v>
+        <v>1.022880128819911</v>
       </c>
       <c r="K20">
-        <v>1.030523724658617</v>
+        <v>1.030539987875329</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.023996110338155</v>
+        <v>1.024114324606973</v>
       </c>
       <c r="N20">
-        <v>1.011512170331793</v>
+        <v>1.013425335481123</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027605019024415</v>
+        <v>1.027698574634602</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032732161918219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032760222151262</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02053793202046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9910203440555009</v>
+        <v>0.9915365580883404</v>
       </c>
       <c r="D21">
-        <v>1.014342981608849</v>
+        <v>1.014605678454188</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.006561879602773</v>
+        <v>1.006786870014624</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040834477180582</v>
+        <v>1.041037016292098</v>
       </c>
       <c r="J21">
-        <v>1.020898358439115</v>
+        <v>1.021392444256439</v>
       </c>
       <c r="K21">
-        <v>1.029057623181259</v>
+        <v>1.029315526290691</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.021419992513225</v>
+        <v>1.021640793834302</v>
       </c>
       <c r="N21">
-        <v>1.010934839017257</v>
+        <v>1.013442487972628</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025524718783211</v>
+        <v>1.025699471934331</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031698798405253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031898034274688</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020315218954476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9885776215950861</v>
+        <v>0.9892444289614397</v>
       </c>
       <c r="D22">
-        <v>1.012812205861427</v>
+        <v>1.01322948663345</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.004438306679894</v>
+        <v>1.00472924262275</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040332996578819</v>
+        <v>1.040619221066794</v>
       </c>
       <c r="J22">
-        <v>1.019827471807755</v>
+        <v>1.02046406270122</v>
       </c>
       <c r="K22">
-        <v>1.028134052749336</v>
+        <v>1.028543342887012</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.019922349629631</v>
+        <v>1.020207590879431</v>
       </c>
       <c r="N22">
-        <v>1.010575352316702</v>
+        <v>1.013450962804338</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024339408509212</v>
+        <v>1.024565163010557</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031032223012687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.031337196068221</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020173555849663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9898693073898033</v>
+        <v>0.9904453353756779</v>
       </c>
       <c r="D23">
-        <v>1.013615129763626</v>
+        <v>1.013942536362985</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.005563790946189</v>
+        <v>1.005814976411301</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040595102034417</v>
+        <v>1.040831832504948</v>
       </c>
       <c r="J23">
-        <v>1.020390087275068</v>
+        <v>1.020940763850556</v>
       </c>
       <c r="K23">
-        <v>1.028614928984572</v>
+        <v>1.02893622273753</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.020715551445767</v>
+        <v>1.020961947930251</v>
       </c>
       <c r="N23">
-        <v>1.010763513380734</v>
+        <v>1.013402559169843</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.024967188774691</v>
+        <v>1.025162199368172</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.031362551312055</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031604365472622</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020243817966016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9948737121758775</v>
+        <v>0.9951518665904282</v>
       </c>
       <c r="D24">
-        <v>1.01674618082165</v>
+        <v>1.016764783094839</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.009934327701801</v>
+        <v>1.010055355032905</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04160041743258</v>
+        <v>1.041670760908932</v>
       </c>
       <c r="J24">
-        <v>1.02257053244302</v>
+        <v>1.022837827209808</v>
       </c>
       <c r="K24">
-        <v>1.030485461282501</v>
+        <v>1.030503750616501</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.023789202874507</v>
+        <v>1.023908158836648</v>
       </c>
       <c r="N24">
-        <v>1.011494019895008</v>
+        <v>1.013407527168484</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.027399827408417</v>
+        <v>1.027493974823035</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.032677586644627</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032704408389822</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020525509997091</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00049754979576</v>
+        <v>1.000589519266111</v>
       </c>
       <c r="D25">
-        <v>1.020284399353421</v>
+        <v>1.020062210908154</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.014876671508502</v>
+        <v>1.014916589240574</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042695355211802</v>
+        <v>1.042647508727864</v>
       </c>
       <c r="J25">
-        <v>1.025008180999753</v>
+        <v>1.025097060010942</v>
       </c>
       <c r="K25">
-        <v>1.032575780239295</v>
+        <v>1.032356869848659</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.027248353820897</v>
+        <v>1.027287674811064</v>
       </c>
       <c r="N25">
-        <v>1.012310862291741</v>
+        <v>1.013961615016373</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03013755898608</v>
+        <v>1.030168679368689</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034152689592652</v>
+        <v>1.034011494988872</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020859223212504</v>
       </c>
     </row>
   </sheetData>
